--- a/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848551347728481</v>
+        <v>1.004436127897188</v>
       </c>
       <c r="D2">
-        <v>1.005687222972838</v>
+        <v>1.02335583165414</v>
       </c>
       <c r="E2">
-        <v>0.9937843225522173</v>
+        <v>1.009563333056666</v>
       </c>
       <c r="F2">
-        <v>0.9935297075180439</v>
+        <v>1.023767195694312</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039402766233799</v>
+        <v>1.043366220204142</v>
       </c>
       <c r="J2">
-        <v>1.0074984585902</v>
+        <v>1.026484959907182</v>
       </c>
       <c r="K2">
-        <v>1.017067890313128</v>
+        <v>1.034499096423207</v>
       </c>
       <c r="L2">
-        <v>1.00533093627328</v>
+        <v>1.020891024056766</v>
       </c>
       <c r="M2">
-        <v>1.005079925912104</v>
+        <v>1.034905055586465</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934070265070606</v>
+        <v>1.012237458189413</v>
       </c>
       <c r="D3">
-        <v>1.012116218506774</v>
+        <v>1.029539211255466</v>
       </c>
       <c r="E3">
-        <v>1.001088964053366</v>
+        <v>1.016096102306541</v>
       </c>
       <c r="F3">
-        <v>1.00200218680928</v>
+        <v>1.030852857448461</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042163924703288</v>
+        <v>1.045800291951893</v>
       </c>
       <c r="J3">
-        <v>1.014079050609737</v>
+        <v>1.032399987257905</v>
       </c>
       <c r="K3">
-        <v>1.022596382217164</v>
+        <v>1.039807584117217</v>
       </c>
       <c r="L3">
-        <v>1.011707930317795</v>
+        <v>1.026527091031966</v>
       </c>
       <c r="M3">
-        <v>1.012609513223343</v>
+        <v>1.04110562158482</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987489894584566</v>
+        <v>1.017130346876286</v>
       </c>
       <c r="D4">
-        <v>1.016133723470045</v>
+        <v>1.03341990989978</v>
       </c>
       <c r="E4">
-        <v>1.005658017038869</v>
+        <v>1.020199237346261</v>
       </c>
       <c r="F4">
-        <v>1.007302828643905</v>
+        <v>1.035303476255202</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04387144418027</v>
+        <v>1.047314240408432</v>
       </c>
       <c r="J4">
-        <v>1.018184750439434</v>
+        <v>1.036105780307453</v>
       </c>
       <c r="K4">
-        <v>1.026041251527982</v>
+        <v>1.043131047786702</v>
       </c>
       <c r="L4">
-        <v>1.015688631079719</v>
+        <v>1.030059837799033</v>
       </c>
       <c r="M4">
-        <v>1.017313906811581</v>
+        <v>1.044993702100027</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00095183026991</v>
+        <v>1.019152340952846</v>
       </c>
       <c r="D5">
-        <v>1.017790634608784</v>
+        <v>1.035024113628765</v>
       </c>
       <c r="E5">
-        <v>1.007543504335208</v>
+        <v>1.021896171675077</v>
       </c>
       <c r="F5">
-        <v>1.009490544189779</v>
+        <v>1.037144178975778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044571338846071</v>
+        <v>1.047936773544156</v>
       </c>
       <c r="J5">
-        <v>1.019876541758267</v>
+        <v>1.037636164281418</v>
       </c>
       <c r="K5">
-        <v>1.027459642351918</v>
+        <v>1.044502957544086</v>
       </c>
       <c r="L5">
-        <v>1.017329392452474</v>
+        <v>1.031519160569446</v>
       </c>
       <c r="M5">
-        <v>1.019253998633639</v>
+        <v>1.046600164080856</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001319260881051</v>
+        <v>1.019489850761959</v>
       </c>
       <c r="D6">
-        <v>1.018067014222929</v>
+        <v>1.035291912261358</v>
       </c>
       <c r="E6">
-        <v>1.007858078105535</v>
+        <v>1.022179496822609</v>
       </c>
       <c r="F6">
-        <v>1.009855562526702</v>
+        <v>1.037451511800619</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044687829054711</v>
+        <v>1.048040501567441</v>
       </c>
       <c r="J6">
-        <v>1.020158653744092</v>
+        <v>1.037891551614122</v>
       </c>
       <c r="K6">
-        <v>1.027696098072878</v>
+        <v>1.044731864021437</v>
       </c>
       <c r="L6">
-        <v>1.017603022837584</v>
+        <v>1.031762712669591</v>
       </c>
       <c r="M6">
-        <v>1.019577610433182</v>
+        <v>1.046868293690424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987785888691622</v>
+        <v>1.017157499585198</v>
       </c>
       <c r="D7">
-        <v>1.016155986546325</v>
+        <v>1.033441450410212</v>
       </c>
       <c r="E7">
-        <v>1.005683346921283</v>
+        <v>1.020222019885618</v>
       </c>
       <c r="F7">
-        <v>1.007332217325688</v>
+        <v>1.035328188742697</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04388086547724</v>
+        <v>1.047322612600239</v>
       </c>
       <c r="J7">
-        <v>1.018207488004991</v>
+        <v>1.036126335556618</v>
       </c>
       <c r="K7">
-        <v>1.026060319016641</v>
+        <v>1.043149476841726</v>
       </c>
       <c r="L7">
-        <v>1.015710680926894</v>
+        <v>1.030079437017906</v>
       </c>
       <c r="M7">
-        <v>1.017339975141472</v>
+        <v>1.04501527604352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9877868614290487</v>
+        <v>1.007106095273665</v>
       </c>
       <c r="D8">
-        <v>1.007890743475057</v>
+        <v>1.025471446195841</v>
       </c>
       <c r="E8">
-        <v>0.9962870851169277</v>
+        <v>1.011797836553322</v>
       </c>
       <c r="F8">
-        <v>0.9964324078939321</v>
+        <v>1.026190771234508</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040352931678142</v>
+        <v>1.04420190153833</v>
       </c>
       <c r="J8">
-        <v>1.009755371670229</v>
+        <v>1.028510153925179</v>
       </c>
       <c r="K8">
-        <v>1.018964880036963</v>
+        <v>1.036317099518846</v>
       </c>
       <c r="L8">
-        <v>1.007517586199113</v>
+        <v>1.022820335344596</v>
       </c>
       <c r="M8">
-        <v>1.007660922333512</v>
+        <v>1.037027284236753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9667983152324031</v>
+        <v>0.9880984551358026</v>
       </c>
       <c r="D9">
-        <v>0.9921299968972178</v>
+        <v>1.010426840802205</v>
       </c>
       <c r="E9">
-        <v>0.97840222637876</v>
+        <v>0.995920479456328</v>
       </c>
       <c r="F9">
-        <v>0.9756914540298049</v>
+        <v>1.008970609630482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033479297699402</v>
+        <v>1.038200824890098</v>
       </c>
       <c r="J9">
-        <v>0.9935805623866504</v>
+        <v>1.014078602958739</v>
       </c>
       <c r="K9">
-        <v>1.005352063102108</v>
+        <v>1.023352984968553</v>
       </c>
       <c r="L9">
-        <v>0.9918557092945661</v>
+        <v>1.009080092618885</v>
       </c>
       <c r="M9">
-        <v>0.9891916298749177</v>
+        <v>1.021919802459681</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9514699150029595</v>
+        <v>0.9743839042489348</v>
       </c>
       <c r="D10">
-        <v>0.9806480151348697</v>
+        <v>0.9995999553205831</v>
       </c>
       <c r="E10">
-        <v>0.9653901791440233</v>
+        <v>0.9845093842745763</v>
       </c>
       <c r="F10">
-        <v>0.9605999983039998</v>
+        <v>0.9965949142795235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028372555537219</v>
+        <v>1.033808179480233</v>
       </c>
       <c r="J10">
-        <v>0.9817506822498775</v>
+        <v>1.003652053917111</v>
       </c>
       <c r="K10">
-        <v>0.9953756930255413</v>
+        <v>1.013976436456131</v>
       </c>
       <c r="L10">
-        <v>0.9804137647802512</v>
+        <v>0.9991640748651806</v>
       </c>
       <c r="M10">
-        <v>0.9757190352970909</v>
+        <v>1.011025921973303</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9444475805553765</v>
+        <v>0.9681523740384885</v>
       </c>
       <c r="D11">
-        <v>0.9753982488086046</v>
+        <v>0.9946897628954443</v>
       </c>
       <c r="E11">
-        <v>0.9594436910550674</v>
+        <v>0.9793373974624067</v>
       </c>
       <c r="F11">
-        <v>0.9537014060498056</v>
+        <v>0.9909857151608791</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026014262823132</v>
+        <v>1.031798746909362</v>
       </c>
       <c r="J11">
-        <v>0.9763290343685354</v>
+        <v>0.9989128072267596</v>
       </c>
       <c r="K11">
-        <v>0.9907995254289421</v>
+        <v>1.009712522169543</v>
       </c>
       <c r="L11">
-        <v>0.9751732290161645</v>
+        <v>0.9946597912687779</v>
       </c>
       <c r="M11">
-        <v>0.9695526530944811</v>
+        <v>1.006079653685943</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9417742917302252</v>
+        <v>0.9657891149618353</v>
       </c>
       <c r="D12">
-        <v>0.9734016806991236</v>
+        <v>0.9928292508165195</v>
       </c>
       <c r="E12">
-        <v>0.9571824509331001</v>
+        <v>0.9773781222631281</v>
       </c>
       <c r="F12">
-        <v>0.9510776928433817</v>
+        <v>0.9888607989208131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025113866398661</v>
+        <v>1.031034785050951</v>
       </c>
       <c r="J12">
-        <v>0.9742649891101196</v>
+        <v>0.9971153841894478</v>
       </c>
       <c r="K12">
-        <v>0.9890568417139406</v>
+        <v>1.008095132702379</v>
       </c>
       <c r="L12">
-        <v>0.9731786618887759</v>
+        <v>0.9929519453064033</v>
       </c>
       <c r="M12">
-        <v>0.9672062763779141</v>
+        <v>1.004204565964544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423507837458539</v>
+        <v>0.9662983214773344</v>
       </c>
       <c r="D13">
-        <v>0.9738321449787721</v>
+        <v>0.9932300531708401</v>
       </c>
       <c r="E13">
-        <v>0.9576699676331635</v>
+        <v>0.9778001819196045</v>
       </c>
       <c r="F13">
-        <v>0.9516433792991725</v>
+        <v>0.9893185411950003</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025308151410114</v>
+        <v>1.031199477768069</v>
       </c>
       <c r="J13">
-        <v>0.9747100998781032</v>
+        <v>0.997502673057137</v>
       </c>
       <c r="K13">
-        <v>0.9894326728101829</v>
+        <v>1.008443640051034</v>
       </c>
       <c r="L13">
-        <v>0.9736087653923309</v>
+        <v>0.9933199116781367</v>
       </c>
       <c r="M13">
-        <v>0.9677122185734482</v>
+        <v>1.004608550061572</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9442279743080386</v>
+        <v>0.9679580463153336</v>
       </c>
       <c r="D14">
-        <v>0.9752341926363497</v>
+        <v>0.994536740632886</v>
       </c>
       <c r="E14">
-        <v>0.9592578816932804</v>
+        <v>0.9791762436686466</v>
       </c>
       <c r="F14">
-        <v>0.9534858212160171</v>
+        <v>0.9908109374666704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025940348867319</v>
+        <v>1.03173596501027</v>
       </c>
       <c r="J14">
-        <v>0.9761594774778503</v>
+        <v>0.9987650085535966</v>
       </c>
       <c r="K14">
-        <v>0.9906563776421528</v>
+        <v>1.009579531938487</v>
       </c>
       <c r="L14">
-        <v>0.9750093687354454</v>
+        <v>0.9945193487727969</v>
       </c>
       <c r="M14">
-        <v>0.9693598793251583</v>
+        <v>1.005925451298034</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9453757446698194</v>
+        <v>0.9689740709626159</v>
       </c>
       <c r="D15">
-        <v>0.9760917116298322</v>
+        <v>0.9953368716260372</v>
       </c>
       <c r="E15">
-        <v>0.9602291157245911</v>
+        <v>0.980018910576955</v>
       </c>
       <c r="F15">
-        <v>0.9546126749705068</v>
+        <v>0.9917248425635922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026326554025605</v>
+        <v>1.032064138062503</v>
       </c>
       <c r="J15">
-        <v>0.9770456619921779</v>
+        <v>0.9995377572097276</v>
       </c>
       <c r="K15">
-        <v>0.9914045152620858</v>
+        <v>1.01027484677218</v>
       </c>
       <c r="L15">
-        <v>0.9758658016611769</v>
+        <v>0.9952536555072731</v>
       </c>
       <c r="M15">
-        <v>0.9703674543881222</v>
+        <v>1.006731715863467</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9519272787080049</v>
+        <v>0.9747909213429148</v>
       </c>
       <c r="D16">
-        <v>0.9809901757573447</v>
+        <v>0.999920879698994</v>
       </c>
       <c r="E16">
-        <v>0.9657777981175704</v>
+        <v>0.9848474811166695</v>
       </c>
       <c r="F16">
-        <v>0.9610496303803728</v>
+        <v>0.9969615907351808</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028525779564009</v>
+        <v>1.033939158329575</v>
       </c>
       <c r="J16">
-        <v>0.9821037667580153</v>
+        <v>1.003961578812241</v>
       </c>
       <c r="K16">
-        <v>0.9956736402658897</v>
+        <v>1.014254880888232</v>
       </c>
       <c r="L16">
-        <v>0.9807551250421653</v>
+        <v>0.9994583163651697</v>
       </c>
       <c r="M16">
-        <v>0.9761207855051415</v>
+        <v>1.011349082391581</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9559291977972322</v>
+        <v>0.9783581980595534</v>
       </c>
       <c r="D17">
-        <v>0.9839852777293076</v>
+        <v>1.002734671074855</v>
       </c>
       <c r="E17">
-        <v>0.9691711261971978</v>
+        <v>0.987812187879787</v>
       </c>
       <c r="F17">
-        <v>0.9649856197575087</v>
+        <v>1.000176903642685</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0298644020665</v>
+        <v>1.035085605550911</v>
       </c>
       <c r="J17">
-        <v>0.9851930339614338</v>
+        <v>1.006674216376233</v>
       </c>
       <c r="K17">
-        <v>0.9982800531536223</v>
+        <v>1.016694920900205</v>
       </c>
       <c r="L17">
-        <v>0.9837421875122512</v>
+        <v>1.002037342411391</v>
       </c>
       <c r="M17">
-        <v>0.9796367541753064</v>
+        <v>1.014181831808171</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582268327675951</v>
+        <v>0.9804109967900233</v>
       </c>
       <c r="D18">
-        <v>0.9857058115699493</v>
+        <v>1.004354724899718</v>
       </c>
       <c r="E18">
-        <v>0.9711206957877845</v>
+        <v>0.9895194309231266</v>
       </c>
       <c r="F18">
-        <v>0.9672468055542128</v>
+        <v>1.00202845906064</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030631187130334</v>
+        <v>1.035744054250352</v>
       </c>
       <c r="J18">
-        <v>0.986966477344605</v>
+        <v>1.008235040766776</v>
       </c>
       <c r="K18">
-        <v>0.9997759289280597</v>
+        <v>1.018098711118536</v>
       </c>
       <c r="L18">
-        <v>0.985457266124352</v>
+        <v>1.003521558643697</v>
       </c>
       <c r="M18">
-        <v>0.981655911681967</v>
+        <v>1.015812270280138</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9590042505606203</v>
+        <v>0.9811063383997494</v>
       </c>
       <c r="D19">
-        <v>0.9862881145056989</v>
+        <v>1.004903620804789</v>
       </c>
       <c r="E19">
-        <v>0.9717805644195657</v>
+        <v>0.9900979195568598</v>
       </c>
       <c r="F19">
-        <v>0.9680121235843031</v>
+        <v>1.002655847280363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030890329127565</v>
+        <v>1.035966869303259</v>
       </c>
       <c r="J19">
-        <v>0.9875664913154443</v>
+        <v>1.008763703524301</v>
       </c>
       <c r="K19">
-        <v>1.00028196643738</v>
+        <v>1.018574152668292</v>
       </c>
       <c r="L19">
-        <v>0.9860375847702959</v>
+        <v>1.004024318800111</v>
       </c>
       <c r="M19">
-        <v>0.9823391883743228</v>
+        <v>1.0163645960577</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9555036641981347</v>
+        <v>0.9779783832415685</v>
       </c>
       <c r="D20">
-        <v>0.983666700533704</v>
+        <v>1.002434991233018</v>
       </c>
       <c r="E20">
-        <v>0.9688101634735924</v>
+        <v>0.9874964041541894</v>
       </c>
       <c r="F20">
-        <v>0.9645669493726993</v>
+        <v>0.9998344269160833</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029722245346657</v>
+        <v>1.034963673032699</v>
       </c>
       <c r="J20">
-        <v>0.9848645651239146</v>
+        <v>1.006385413281932</v>
       </c>
       <c r="K20">
-        <v>0.9980029629187755</v>
+        <v>1.016435158962276</v>
       </c>
       <c r="L20">
-        <v>0.9834245534869368</v>
+        <v>1.00176273605851</v>
       </c>
       <c r="M20">
-        <v>0.9792628371287559</v>
+        <v>1.013880188351896</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9436770421978755</v>
+        <v>0.9674706800643337</v>
       </c>
       <c r="D21">
-        <v>0.974822652868656</v>
+        <v>0.9941529941020355</v>
       </c>
       <c r="E21">
-        <v>0.9587917777989123</v>
+        <v>0.9787721118381881</v>
       </c>
       <c r="F21">
-        <v>0.9529450180599885</v>
+        <v>0.9903726401617313</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025754877346075</v>
+        <v>1.031578480426077</v>
       </c>
       <c r="J21">
-        <v>0.9757341044755808</v>
+        <v>0.9983943342602026</v>
       </c>
       <c r="K21">
-        <v>0.9902972500418091</v>
+        <v>1.009245993010804</v>
       </c>
       <c r="L21">
-        <v>0.9745982955919021</v>
+        <v>0.9941671310925562</v>
       </c>
       <c r="M21">
-        <v>0.9688762804080652</v>
+        <v>1.005538730518549</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9358613440083158</v>
+        <v>0.9605801636004883</v>
       </c>
       <c r="D22">
-        <v>0.9689895790934502</v>
+        <v>0.9887317562322996</v>
       </c>
       <c r="E22">
-        <v>0.9521858686635364</v>
+        <v>0.9730638661482621</v>
       </c>
       <c r="F22">
-        <v>0.9452792013832392</v>
+        <v>0.9841817662209909</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023117674306238</v>
+        <v>1.029347559000913</v>
       </c>
       <c r="J22">
-        <v>0.9696996484250199</v>
+        <v>0.993153616857078</v>
       </c>
       <c r="K22">
-        <v>0.9852014479411078</v>
+        <v>1.004529793752099</v>
       </c>
       <c r="L22">
-        <v>0.9687680094889413</v>
+        <v>0.9891885087662206</v>
       </c>
       <c r="M22">
-        <v>0.9620186345736341</v>
+        <v>1.000073236087197</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9400432859766151</v>
+        <v>0.9642615729954926</v>
       </c>
       <c r="D23">
-        <v>0.9721094603759713</v>
+        <v>0.9916271661619086</v>
       </c>
       <c r="E23">
-        <v>0.9557189972772218</v>
+        <v>0.9761123428277946</v>
       </c>
       <c r="F23">
-        <v>0.9493795105009493</v>
+        <v>0.9874880023230976</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024530125707767</v>
+        <v>1.030540464504695</v>
       </c>
       <c r="J23">
-        <v>0.9729284765097691</v>
+        <v>0.9959535748103817</v>
       </c>
       <c r="K23">
-        <v>0.987928283082004</v>
+        <v>1.00704963055273</v>
       </c>
       <c r="L23">
-        <v>0.9718872908180026</v>
+        <v>0.991848170908823</v>
       </c>
       <c r="M23">
-        <v>0.9656872806374334</v>
+        <v>1.002992801531956</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9556960571545958</v>
+        <v>0.9781500911938426</v>
       </c>
       <c r="D24">
-        <v>0.9838107332666944</v>
+        <v>1.002570468873268</v>
       </c>
       <c r="E24">
-        <v>0.9689733583690262</v>
+        <v>0.9876391610190652</v>
       </c>
       <c r="F24">
-        <v>0.9647562349692759</v>
+        <v>0.9999892509304641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02978652297533</v>
+        <v>1.035018800672558</v>
       </c>
       <c r="J24">
-        <v>0.9850130736599891</v>
+        <v>1.00651597688957</v>
       </c>
       <c r="K24">
-        <v>0.9981282431523049</v>
+        <v>1.016552594068837</v>
       </c>
       <c r="L24">
-        <v>0.9835681623933792</v>
+        <v>1.001886880690372</v>
       </c>
       <c r="M24">
-        <v>0.9794318915116087</v>
+        <v>1.014016555337076</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9724395698700599</v>
+        <v>0.9931823256884691</v>
       </c>
       <c r="D25">
-        <v>0.9963623905873623</v>
+        <v>1.014446701143247</v>
       </c>
       <c r="E25">
-        <v>0.9832017213169627</v>
+        <v>1.000160158701878</v>
       </c>
       <c r="F25">
-        <v>0.9812572257241379</v>
+        <v>1.013568733960409</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03534194682145</v>
+        <v>1.039816940783346</v>
       </c>
       <c r="J25">
-        <v>0.9979314328343825</v>
+        <v>1.017941330491078</v>
       </c>
       <c r="K25">
-        <v>1.009017439444903</v>
+        <v>1.026824814997051</v>
       </c>
       <c r="L25">
-        <v>0.9960665291999959</v>
+        <v>1.01275598892135</v>
       </c>
       <c r="M25">
-        <v>0.9941536385458845</v>
+        <v>1.025960002106188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004436127897188</v>
+        <v>0.9991916969358107</v>
       </c>
       <c r="D2">
-        <v>1.02335583165414</v>
+        <v>1.021132015036407</v>
       </c>
       <c r="E2">
-        <v>1.009563333056666</v>
+        <v>1.003282633302334</v>
       </c>
       <c r="F2">
-        <v>1.023767195694312</v>
+        <v>1.020803809268953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043366220204142</v>
+        <v>1.047241201549589</v>
       </c>
       <c r="J2">
-        <v>1.026484959907182</v>
+        <v>1.021396611117006</v>
       </c>
       <c r="K2">
-        <v>1.034499096423207</v>
+        <v>1.032304592920732</v>
       </c>
       <c r="L2">
-        <v>1.020891024056766</v>
+        <v>1.014696424489247</v>
       </c>
       <c r="M2">
-        <v>1.034905055586465</v>
+        <v>1.031980726947127</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012237458189413</v>
+        <v>1.009086897700328</v>
       </c>
       <c r="D3">
-        <v>1.029539211255466</v>
+        <v>1.029084814567774</v>
       </c>
       <c r="E3">
-        <v>1.016096102306541</v>
+        <v>1.011867968988423</v>
       </c>
       <c r="F3">
-        <v>1.030852857448461</v>
+        <v>1.029764362145005</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045800291951893</v>
+        <v>1.05078622371428</v>
       </c>
       <c r="J3">
-        <v>1.032399987257905</v>
+        <v>1.029332873071047</v>
       </c>
       <c r="K3">
-        <v>1.039807584117217</v>
+        <v>1.039358598063641</v>
       </c>
       <c r="L3">
-        <v>1.026527091031966</v>
+        <v>1.022351216004994</v>
       </c>
       <c r="M3">
-        <v>1.04110562158482</v>
+        <v>1.040030056262164</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017130346876286</v>
+        <v>1.015239830461878</v>
       </c>
       <c r="D4">
-        <v>1.03341990989978</v>
+        <v>1.034033150965176</v>
       </c>
       <c r="E4">
-        <v>1.020199237346261</v>
+        <v>1.017207211266477</v>
       </c>
       <c r="F4">
-        <v>1.035303476255202</v>
+        <v>1.035344417047547</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047314240408432</v>
+        <v>1.052973830861433</v>
       </c>
       <c r="J4">
-        <v>1.036105780307453</v>
+        <v>1.034261573434496</v>
       </c>
       <c r="K4">
-        <v>1.043131047786702</v>
+        <v>1.043737470137682</v>
       </c>
       <c r="L4">
-        <v>1.030059837799033</v>
+        <v>1.027102303185774</v>
       </c>
       <c r="M4">
-        <v>1.044993702100027</v>
+        <v>1.045034189391632</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019152340952846</v>
+        <v>1.017771100463537</v>
       </c>
       <c r="D5">
-        <v>1.035024113628765</v>
+        <v>1.03606945582408</v>
       </c>
       <c r="E5">
-        <v>1.021896171675077</v>
+        <v>1.019403814648498</v>
       </c>
       <c r="F5">
-        <v>1.037144178975778</v>
+        <v>1.037641836684437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047936773544156</v>
+        <v>1.053869694104731</v>
       </c>
       <c r="J5">
-        <v>1.037636164281418</v>
+        <v>1.036287641551732</v>
       </c>
       <c r="K5">
-        <v>1.044502957544086</v>
+        <v>1.045537014396346</v>
       </c>
       <c r="L5">
-        <v>1.031519160569446</v>
+        <v>1.029054685865517</v>
       </c>
       <c r="M5">
-        <v>1.046600164080856</v>
+        <v>1.047092472570118</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019489850761959</v>
+        <v>1.018192980555799</v>
       </c>
       <c r="D6">
-        <v>1.035291912261358</v>
+        <v>1.036408871770728</v>
       </c>
       <c r="E6">
-        <v>1.022179496822609</v>
+        <v>1.019769918395177</v>
       </c>
       <c r="F6">
-        <v>1.037451511800619</v>
+        <v>1.038024844633301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048040501567441</v>
+        <v>1.054018761437168</v>
       </c>
       <c r="J6">
-        <v>1.037891551614122</v>
+        <v>1.036625226686686</v>
       </c>
       <c r="K6">
-        <v>1.044731864021437</v>
+        <v>1.04583682514637</v>
       </c>
       <c r="L6">
-        <v>1.031762712669591</v>
+        <v>1.029379953911677</v>
       </c>
       <c r="M6">
-        <v>1.046868293690424</v>
+        <v>1.047435495195288</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017157499585198</v>
+        <v>1.015273865741609</v>
       </c>
       <c r="D7">
-        <v>1.033441450410212</v>
+        <v>1.034060528828704</v>
       </c>
       <c r="E7">
-        <v>1.020222019885618</v>
+        <v>1.017236746465856</v>
       </c>
       <c r="F7">
-        <v>1.035328188742697</v>
+        <v>1.035375300949305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047322612600239</v>
+        <v>1.052985892955644</v>
       </c>
       <c r="J7">
-        <v>1.036126335556618</v>
+        <v>1.034288822108572</v>
       </c>
       <c r="K7">
-        <v>1.043149476841726</v>
+        <v>1.043761674332913</v>
       </c>
       <c r="L7">
-        <v>1.030079437017906</v>
+        <v>1.027128563529156</v>
       </c>
       <c r="M7">
-        <v>1.04501527604352</v>
+        <v>1.045061866596899</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007106095273665</v>
+        <v>1.002590399701374</v>
       </c>
       <c r="D8">
-        <v>1.025471446195841</v>
+        <v>1.023862767076472</v>
       </c>
       <c r="E8">
-        <v>1.011797836553322</v>
+        <v>1.006231194332704</v>
       </c>
       <c r="F8">
-        <v>1.026190771234508</v>
+        <v>1.023879619418954</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04420190153833</v>
+        <v>1.048462304674487</v>
       </c>
       <c r="J8">
-        <v>1.028510153925179</v>
+        <v>1.024123725894135</v>
       </c>
       <c r="K8">
-        <v>1.036317099518846</v>
+        <v>1.034728919635745</v>
       </c>
       <c r="L8">
-        <v>1.022820335344596</v>
+        <v>1.017327416536494</v>
       </c>
       <c r="M8">
-        <v>1.037027284236753</v>
+        <v>1.034745556813372</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9880984551358026</v>
+        <v>0.9780957348384559</v>
       </c>
       <c r="D9">
-        <v>1.010426840802205</v>
+        <v>1.004204745222336</v>
       </c>
       <c r="E9">
-        <v>0.995920479456328</v>
+        <v>0.9849898411028365</v>
       </c>
       <c r="F9">
-        <v>1.008970609630482</v>
+        <v>1.001756773259882</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038200824890098</v>
+        <v>1.039592185052465</v>
       </c>
       <c r="J9">
-        <v>1.014078602958739</v>
+        <v>1.004446428426849</v>
       </c>
       <c r="K9">
-        <v>1.023352984968553</v>
+        <v>1.01722996975129</v>
       </c>
       <c r="L9">
-        <v>1.009080092618885</v>
+        <v>0.9983312344830159</v>
       </c>
       <c r="M9">
-        <v>1.021919802459681</v>
+        <v>1.01482141220151</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9743839042489348</v>
+        <v>0.9599360393149093</v>
       </c>
       <c r="D10">
-        <v>0.9995999553205831</v>
+        <v>0.9896719169687431</v>
       </c>
       <c r="E10">
-        <v>0.9845093842745763</v>
+        <v>0.969261752577225</v>
       </c>
       <c r="F10">
-        <v>0.9965949142795235</v>
+        <v>0.9854246548593868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033808179480233</v>
+        <v>1.032931609160526</v>
       </c>
       <c r="J10">
-        <v>1.003652053917111</v>
+        <v>0.9898346059533237</v>
       </c>
       <c r="K10">
-        <v>1.013976436456131</v>
+        <v>1.00423018607368</v>
       </c>
       <c r="L10">
-        <v>0.9991640748651806</v>
+        <v>0.9842090960982518</v>
       </c>
       <c r="M10">
-        <v>1.011025921973303</v>
+        <v>1.000062154578073</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9681523740384885</v>
+        <v>0.9515266549793329</v>
       </c>
       <c r="D11">
-        <v>0.9946897628954443</v>
+        <v>0.9829564154016546</v>
       </c>
       <c r="E11">
-        <v>0.9793373974624067</v>
+        <v>0.9619862112107245</v>
       </c>
       <c r="F11">
-        <v>0.9909857151608791</v>
+        <v>0.9778824544476168</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031798746909362</v>
+        <v>1.029829266004562</v>
       </c>
       <c r="J11">
-        <v>0.9989128072267596</v>
+        <v>0.9830648969973648</v>
       </c>
       <c r="K11">
-        <v>1.009712522169543</v>
+        <v>0.9982070689316777</v>
       </c>
       <c r="L11">
-        <v>0.9946597912687779</v>
+        <v>0.9776624732764442</v>
       </c>
       <c r="M11">
-        <v>1.006079653685943</v>
+        <v>0.9932338866340292</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657891149618353</v>
+        <v>0.9483088983396347</v>
       </c>
       <c r="D12">
-        <v>0.9928292508165195</v>
+        <v>0.9803894374810312</v>
       </c>
       <c r="E12">
-        <v>0.9773781222631281</v>
+        <v>0.9592038143681932</v>
       </c>
       <c r="F12">
-        <v>0.9888607989208131</v>
+        <v>0.9750001121769581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031034785050951</v>
+        <v>1.028639715329572</v>
       </c>
       <c r="J12">
-        <v>0.9971153841894478</v>
+        <v>0.9804743016949603</v>
       </c>
       <c r="K12">
-        <v>1.008095132702379</v>
+        <v>0.9959022422243913</v>
       </c>
       <c r="L12">
-        <v>0.9929519453064033</v>
+        <v>0.9751566871646986</v>
       </c>
       <c r="M12">
-        <v>1.004204565964544</v>
+        <v>0.9906224721564675</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9662983214773344</v>
+        <v>0.949003601053214</v>
       </c>
       <c r="D13">
-        <v>0.9932300531708401</v>
+        <v>0.9809435120462441</v>
       </c>
       <c r="E13">
-        <v>0.9778001819196045</v>
+        <v>0.9598044503964565</v>
       </c>
       <c r="F13">
-        <v>0.9893185411950003</v>
+        <v>0.9756222297412145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031199477768069</v>
+        <v>1.028896642659941</v>
       </c>
       <c r="J13">
-        <v>0.997502673057137</v>
+        <v>0.9810336087741226</v>
       </c>
       <c r="K13">
-        <v>1.008443640051034</v>
+        <v>0.9963998471935351</v>
       </c>
       <c r="L13">
-        <v>0.9933199116781367</v>
+        <v>0.9756977090648842</v>
       </c>
       <c r="M13">
-        <v>1.004608550061572</v>
+        <v>0.9911862002007316</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9679580463153336</v>
+        <v>0.9512626739295494</v>
       </c>
       <c r="D14">
-        <v>0.994536740632886</v>
+        <v>0.982745767239144</v>
       </c>
       <c r="E14">
-        <v>0.9791762436686466</v>
+        <v>0.9617579139718521</v>
       </c>
       <c r="F14">
-        <v>0.9908109374666704</v>
+        <v>0.9776459148074275</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03173596501027</v>
+        <v>1.029731725174158</v>
       </c>
       <c r="J14">
-        <v>0.9987650085535966</v>
+        <v>0.9828523708236628</v>
       </c>
       <c r="K14">
-        <v>1.009579531938487</v>
+        <v>0.9980179844876294</v>
       </c>
       <c r="L14">
-        <v>0.9945193487727969</v>
+        <v>0.9774569158937202</v>
       </c>
       <c r="M14">
-        <v>1.005925451298034</v>
+        <v>0.9930196195889813</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9689740709626159</v>
+        <v>0.9526416829469645</v>
       </c>
       <c r="D15">
-        <v>0.9953368716260372</v>
+        <v>0.9838462804928586</v>
       </c>
       <c r="E15">
-        <v>0.980018910576955</v>
+        <v>0.9629505776759004</v>
       </c>
       <c r="F15">
-        <v>0.9917248425635922</v>
+        <v>0.9788817212401523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032064138062503</v>
+        <v>1.030241169495166</v>
       </c>
       <c r="J15">
-        <v>0.9995377572097276</v>
+        <v>0.9839625768370742</v>
       </c>
       <c r="K15">
-        <v>1.01027484677218</v>
+        <v>0.999005737685385</v>
       </c>
       <c r="L15">
-        <v>0.9952536555072731</v>
+        <v>0.9785306953524363</v>
       </c>
       <c r="M15">
-        <v>1.006731715863467</v>
+        <v>0.994138984777427</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9747909213429148</v>
+        <v>0.9604816620603961</v>
       </c>
       <c r="D16">
-        <v>0.999920879698994</v>
+        <v>0.990107968032203</v>
       </c>
       <c r="E16">
-        <v>0.9848474811166695</v>
+        <v>0.9697339950226593</v>
       </c>
       <c r="F16">
-        <v>0.9969615907351808</v>
+        <v>0.9859144764863571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033939158329575</v>
+        <v>1.033132546985644</v>
       </c>
       <c r="J16">
-        <v>1.003961578812241</v>
+        <v>0.990273794915456</v>
       </c>
       <c r="K16">
-        <v>1.014254880888232</v>
+        <v>1.004620942430458</v>
       </c>
       <c r="L16">
-        <v>0.9994583163651697</v>
+        <v>0.9846337352603983</v>
       </c>
       <c r="M16">
-        <v>1.011349082391581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.000505352226663</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9783581980595534</v>
+        <v>0.9652454987004087</v>
       </c>
       <c r="D17">
-        <v>1.002734671074855</v>
+        <v>0.9939167798299472</v>
       </c>
       <c r="E17">
-        <v>0.987812187879787</v>
+        <v>0.9738580507075039</v>
       </c>
       <c r="F17">
-        <v>1.000176903642685</v>
+        <v>0.9901934836038391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035085605550911</v>
+        <v>1.034884957721778</v>
       </c>
       <c r="J17">
-        <v>1.006674216376233</v>
+        <v>0.9941080171383889</v>
       </c>
       <c r="K17">
-        <v>1.016694920900205</v>
+        <v>1.00803231732126</v>
       </c>
       <c r="L17">
-        <v>1.002037342411391</v>
+        <v>0.9883405131018274</v>
       </c>
       <c r="M17">
-        <v>1.014181831808171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.004375669482755</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9804109967900233</v>
+        <v>0.9679724086993373</v>
       </c>
       <c r="D18">
-        <v>1.004354724899718</v>
+        <v>0.9960983109222433</v>
       </c>
       <c r="E18">
-        <v>0.9895194309231266</v>
+        <v>0.9762194377381764</v>
       </c>
       <c r="F18">
-        <v>1.00202845906064</v>
+        <v>0.9926447679707668</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035744054250352</v>
+        <v>1.035886390486482</v>
       </c>
       <c r="J18">
-        <v>1.008235040766776</v>
+        <v>0.9963024771768816</v>
       </c>
       <c r="K18">
-        <v>1.018098711118536</v>
+        <v>1.009984734190937</v>
       </c>
       <c r="L18">
-        <v>1.003521558643697</v>
+        <v>0.9904616808841834</v>
       </c>
       <c r="M18">
-        <v>1.015812270280138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.006591681703579</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9811063383997494</v>
+        <v>0.9688937627485577</v>
       </c>
       <c r="D19">
-        <v>1.004903620804789</v>
+        <v>0.9968356024076842</v>
       </c>
       <c r="E19">
-        <v>0.9900979195568598</v>
+        <v>0.9770174008217406</v>
       </c>
       <c r="F19">
-        <v>1.002655847280363</v>
+        <v>0.993473305286147</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035966869303259</v>
+        <v>1.036224458376617</v>
       </c>
       <c r="J19">
-        <v>1.008763703524301</v>
+        <v>0.9970438688414924</v>
       </c>
       <c r="K19">
-        <v>1.018574152668292</v>
+        <v>1.010644343890617</v>
       </c>
       <c r="L19">
-        <v>1.004024318800111</v>
+        <v>0.9911782511979089</v>
       </c>
       <c r="M19">
-        <v>1.0163645960577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.007340503013644</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9779783832415685</v>
+        <v>0.9647398166711113</v>
       </c>
       <c r="D20">
-        <v>1.002434991233018</v>
+        <v>0.9935123358337545</v>
       </c>
       <c r="E20">
-        <v>0.9874964041541894</v>
+        <v>0.9734202065104932</v>
       </c>
       <c r="F20">
-        <v>0.9998344269160833</v>
+        <v>0.9897390654185815</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034963673032699</v>
+        <v>1.034699112637876</v>
       </c>
       <c r="J20">
-        <v>1.006385413281932</v>
+        <v>0.9937010456943861</v>
       </c>
       <c r="K20">
-        <v>1.016435158962276</v>
+        <v>1.007670230396995</v>
       </c>
       <c r="L20">
-        <v>1.00176273605851</v>
+        <v>0.987947105401722</v>
       </c>
       <c r="M20">
-        <v>1.013880188351896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.003964772924496</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9674706800643337</v>
+        <v>0.9506001422482097</v>
       </c>
       <c r="D21">
-        <v>0.9941529941020355</v>
+        <v>0.9822171328303594</v>
       </c>
       <c r="E21">
-        <v>0.9787721118381881</v>
+        <v>0.9611849658658923</v>
       </c>
       <c r="F21">
-        <v>0.9903726401617313</v>
+        <v>0.9770523141254325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031578480426077</v>
+        <v>1.029486881314036</v>
       </c>
       <c r="J21">
-        <v>0.9983943342602026</v>
+        <v>0.9823189760947606</v>
       </c>
       <c r="K21">
-        <v>1.009245993010804</v>
+        <v>0.9975434249013618</v>
       </c>
       <c r="L21">
-        <v>0.9941671310925562</v>
+        <v>0.976941002379405</v>
       </c>
       <c r="M21">
-        <v>1.005538730518549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9924818816054766</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9605801636004883</v>
+        <v>0.9411572316002897</v>
       </c>
       <c r="D22">
-        <v>0.9887317562322996</v>
+        <v>0.9746896666134786</v>
       </c>
       <c r="E22">
-        <v>0.9730638661482621</v>
+        <v>0.9530229937941319</v>
       </c>
       <c r="F22">
-        <v>0.9841817662209909</v>
+        <v>0.9686011897588921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029347559000913</v>
+        <v>1.025991567409788</v>
       </c>
       <c r="J22">
-        <v>0.993153616857078</v>
+        <v>0.9747164175566773</v>
       </c>
       <c r="K22">
-        <v>1.004529793752099</v>
+        <v>0.9907797720472831</v>
       </c>
       <c r="L22">
-        <v>0.9891885087662206</v>
+        <v>0.9695862764231361</v>
       </c>
       <c r="M22">
-        <v>1.000073236087197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9848214244400511</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9642615729954926</v>
+        <v>0.9462202634533059</v>
       </c>
       <c r="D23">
-        <v>0.9916271661619086</v>
+        <v>0.9787240315475225</v>
       </c>
       <c r="E23">
-        <v>0.9761123428277946</v>
+        <v>0.9573982432506352</v>
       </c>
       <c r="F23">
-        <v>0.9874880023230976</v>
+        <v>0.973130273691722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030540464504695</v>
+        <v>1.027866916254493</v>
       </c>
       <c r="J23">
-        <v>0.9959535748103817</v>
+        <v>0.9787927226725374</v>
       </c>
       <c r="K23">
-        <v>1.00704963055273</v>
+        <v>0.9944061922615427</v>
       </c>
       <c r="L23">
-        <v>0.991848170908823</v>
+        <v>0.9735300020787567</v>
       </c>
       <c r="M23">
-        <v>1.002992801531956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9889278454539316</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9781500911938426</v>
+        <v>0.9649684716642599</v>
       </c>
       <c r="D24">
-        <v>1.002570468873268</v>
+        <v>0.9936952098749342</v>
       </c>
       <c r="E24">
-        <v>0.9876391610190652</v>
+        <v>0.9736181850147743</v>
       </c>
       <c r="F24">
-        <v>0.9999892509304641</v>
+        <v>0.9899445344786508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035018800672558</v>
+        <v>1.034783151734486</v>
       </c>
       <c r="J24">
-        <v>1.00651597688957</v>
+        <v>0.9938850675937723</v>
       </c>
       <c r="K24">
-        <v>1.016552594068837</v>
+        <v>1.007833956794113</v>
       </c>
       <c r="L24">
-        <v>1.001886880690372</v>
+        <v>0.9881249952239909</v>
       </c>
       <c r="M24">
-        <v>1.014016555337076</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.004150566883581</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9931823256884691</v>
+        <v>0.9847182405472928</v>
       </c>
       <c r="D25">
-        <v>1.014446701143247</v>
+        <v>1.009513979420032</v>
       </c>
       <c r="E25">
-        <v>1.000160158701878</v>
+        <v>0.9907303257660712</v>
       </c>
       <c r="F25">
-        <v>1.013568733960409</v>
+        <v>1.007727668209971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039816940783346</v>
+        <v>1.042005085909366</v>
       </c>
       <c r="J25">
-        <v>1.017941330491078</v>
+        <v>1.009771073358947</v>
       </c>
       <c r="K25">
-        <v>1.026824814997051</v>
+        <v>1.021966376820096</v>
       </c>
       <c r="L25">
-        <v>1.01275598892135</v>
+        <v>1.003474266339063</v>
       </c>
       <c r="M25">
-        <v>1.025960002106188</v>
+        <v>1.020207194924394</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991916969358107</v>
+        <v>1.053326784846613</v>
       </c>
       <c r="D2">
-        <v>1.021132015036407</v>
+        <v>1.05735288753316</v>
       </c>
       <c r="E2">
-        <v>1.003282633302334</v>
+        <v>1.049784570808108</v>
       </c>
       <c r="F2">
-        <v>1.020803809268953</v>
+        <v>1.065580750290415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047241201549589</v>
+        <v>1.042826644038349</v>
       </c>
       <c r="J2">
-        <v>1.021396611117006</v>
+        <v>1.058344714004051</v>
       </c>
       <c r="K2">
-        <v>1.032304592920732</v>
+        <v>1.060088090727344</v>
       </c>
       <c r="L2">
-        <v>1.014696424489247</v>
+        <v>1.052540665006015</v>
       </c>
       <c r="M2">
-        <v>1.031980726947127</v>
+        <v>1.068293606303547</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009086897700328</v>
+        <v>1.055145191482075</v>
       </c>
       <c r="D3">
-        <v>1.029084814567774</v>
+        <v>1.058813802458063</v>
       </c>
       <c r="E3">
-        <v>1.011867968988423</v>
+        <v>1.051380687837002</v>
       </c>
       <c r="F3">
-        <v>1.029764362145005</v>
+        <v>1.067271853948689</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05078622371428</v>
+        <v>1.043339064684925</v>
       </c>
       <c r="J3">
-        <v>1.029332873071047</v>
+        <v>1.059809744085155</v>
       </c>
       <c r="K3">
-        <v>1.039358598063641</v>
+        <v>1.061361181682894</v>
       </c>
       <c r="L3">
-        <v>1.022351216004994</v>
+        <v>1.05394707619614</v>
       </c>
       <c r="M3">
-        <v>1.040030056262164</v>
+        <v>1.069797949821406</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015239830461878</v>
+        <v>1.056318172525178</v>
       </c>
       <c r="D4">
-        <v>1.034033150965176</v>
+        <v>1.05975583367735</v>
       </c>
       <c r="E4">
-        <v>1.017207211266477</v>
+        <v>1.052409786857123</v>
       </c>
       <c r="F4">
-        <v>1.035344417047547</v>
+        <v>1.068363033590878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052973830861433</v>
+        <v>1.043667506075708</v>
       </c>
       <c r="J4">
-        <v>1.034261573434496</v>
+        <v>1.060753808169771</v>
       </c>
       <c r="K4">
-        <v>1.043737470137682</v>
+        <v>1.062181170397339</v>
       </c>
       <c r="L4">
-        <v>1.027102303185774</v>
+        <v>1.054852949132864</v>
       </c>
       <c r="M4">
-        <v>1.045034189391632</v>
+        <v>1.070767819387793</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017771100463537</v>
+        <v>1.05681043870908</v>
       </c>
       <c r="D5">
-        <v>1.03606945582408</v>
+        <v>1.060151092597324</v>
       </c>
       <c r="E5">
-        <v>1.019403814648498</v>
+        <v>1.052841551764208</v>
       </c>
       <c r="F5">
-        <v>1.037641836684437</v>
+        <v>1.068821044613688</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053869694104731</v>
+        <v>1.043804839804518</v>
       </c>
       <c r="J5">
-        <v>1.036287641551732</v>
+        <v>1.061149772308974</v>
       </c>
       <c r="K5">
-        <v>1.045537014396346</v>
+        <v>1.062525000240248</v>
       </c>
       <c r="L5">
-        <v>1.029054685865517</v>
+        <v>1.055232795306992</v>
       </c>
       <c r="M5">
-        <v>1.047092472570118</v>
+        <v>1.071174719554556</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018192980555799</v>
+        <v>1.056893042766477</v>
       </c>
       <c r="D6">
-        <v>1.036408871770728</v>
+        <v>1.06021741349697</v>
       </c>
       <c r="E6">
-        <v>1.019769918395177</v>
+        <v>1.052913996545844</v>
       </c>
       <c r="F6">
-        <v>1.038024844633301</v>
+        <v>1.068897904863724</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054018761437168</v>
+        <v>1.043827855344991</v>
       </c>
       <c r="J6">
-        <v>1.036625226686686</v>
+        <v>1.061216202897955</v>
       </c>
       <c r="K6">
-        <v>1.04583682514637</v>
+        <v>1.06258267876948</v>
       </c>
       <c r="L6">
-        <v>1.029379953911677</v>
+        <v>1.055296515960157</v>
       </c>
       <c r="M6">
-        <v>1.047435495195288</v>
+        <v>1.071242991462382</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015273865741609</v>
+        <v>1.056324753544351</v>
       </c>
       <c r="D7">
-        <v>1.034060528828704</v>
+        <v>1.059761118156986</v>
       </c>
       <c r="E7">
-        <v>1.017236746465856</v>
+        <v>1.052415559510554</v>
       </c>
       <c r="F7">
-        <v>1.035375300949305</v>
+        <v>1.068369156367585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052985892955644</v>
+        <v>1.043669344047017</v>
       </c>
       <c r="J7">
-        <v>1.034288822108572</v>
+        <v>1.060759102657734</v>
       </c>
       <c r="K7">
-        <v>1.043761674332913</v>
+        <v>1.062185768161253</v>
       </c>
       <c r="L7">
-        <v>1.027128563529156</v>
+        <v>1.054858028496971</v>
       </c>
       <c r="M7">
-        <v>1.045061866596899</v>
+        <v>1.070773259660678</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002590399701374</v>
+        <v>1.05394209086693</v>
       </c>
       <c r="D8">
-        <v>1.023862767076472</v>
+        <v>1.057847297775571</v>
       </c>
       <c r="E8">
-        <v>1.006231194332704</v>
+        <v>1.050324761095038</v>
       </c>
       <c r="F8">
-        <v>1.023879619418954</v>
+        <v>1.066152913502679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048462304674487</v>
+        <v>1.043000470553091</v>
       </c>
       <c r="J8">
-        <v>1.024123725894135</v>
+        <v>1.058840646259902</v>
       </c>
       <c r="K8">
-        <v>1.034728919635745</v>
+        <v>1.060519129628746</v>
       </c>
       <c r="L8">
-        <v>1.017327416536494</v>
+        <v>1.053016840751953</v>
       </c>
       <c r="M8">
-        <v>1.034745556813372</v>
+        <v>1.068802748432776</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9780957348384559</v>
+        <v>1.049714739621802</v>
       </c>
       <c r="D9">
-        <v>1.004204745222336</v>
+        <v>1.054449166956319</v>
       </c>
       <c r="E9">
-        <v>0.9849898411028365</v>
+        <v>1.046611465790499</v>
       </c>
       <c r="F9">
-        <v>1.001756773259882</v>
+        <v>1.062223324188587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039592185052465</v>
+        <v>1.041797590977813</v>
       </c>
       <c r="J9">
-        <v>1.004446428426849</v>
+        <v>1.055429458626092</v>
       </c>
       <c r="K9">
-        <v>1.01722996975129</v>
+        <v>1.057552712841915</v>
       </c>
       <c r="L9">
-        <v>0.9983312344830159</v>
+        <v>1.049739811779812</v>
       </c>
       <c r="M9">
-        <v>1.01482141220151</v>
+        <v>1.065302665906675</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9599360393149093</v>
+        <v>1.046875959756139</v>
       </c>
       <c r="D10">
-        <v>0.9896719169687431</v>
+        <v>1.052165562565986</v>
       </c>
       <c r="E10">
-        <v>0.969261752577225</v>
+        <v>1.044115371162573</v>
       </c>
       <c r="F10">
-        <v>0.9854246548593868</v>
+        <v>1.059586261640353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032931609160526</v>
+        <v>1.040978987272023</v>
       </c>
       <c r="J10">
-        <v>0.9898346059533237</v>
+        <v>1.053133775418171</v>
       </c>
       <c r="K10">
-        <v>1.00423018607368</v>
+        <v>1.055554380637495</v>
       </c>
       <c r="L10">
-        <v>0.9842090960982518</v>
+        <v>1.047532222864535</v>
       </c>
       <c r="M10">
-        <v>1.000062154578073</v>
+        <v>1.062949653117611</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9515266549793329</v>
+        <v>1.045641597991867</v>
       </c>
       <c r="D11">
-        <v>0.9829564154016546</v>
+        <v>1.051172225885933</v>
       </c>
       <c r="E11">
-        <v>0.9619862112107245</v>
+        <v>1.043029424309392</v>
       </c>
       <c r="F11">
-        <v>0.9778824544476168</v>
+        <v>1.058440046503481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029829266004562</v>
+        <v>1.040620478489499</v>
       </c>
       <c r="J11">
-        <v>0.9830648969973648</v>
+        <v>1.052134388579281</v>
       </c>
       <c r="K11">
-        <v>0.9982070689316777</v>
+        <v>1.054683979983303</v>
       </c>
       <c r="L11">
-        <v>0.9776624732764442</v>
+        <v>1.046570662750668</v>
       </c>
       <c r="M11">
-        <v>0.9932338866340292</v>
+        <v>1.06192590705435</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9483088983396347</v>
+        <v>1.045182304129151</v>
       </c>
       <c r="D12">
-        <v>0.9803894374810312</v>
+        <v>1.050802560020184</v>
       </c>
       <c r="E12">
-        <v>0.9592038143681932</v>
+        <v>1.042625265688195</v>
       </c>
       <c r="F12">
-        <v>0.9750001121769581</v>
+        <v>1.05801361807605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028639715329572</v>
+        <v>1.040486696597368</v>
       </c>
       <c r="J12">
-        <v>0.9804743016949603</v>
+        <v>1.051762350543846</v>
       </c>
       <c r="K12">
-        <v>0.9959022422243913</v>
+        <v>1.054359890600327</v>
       </c>
       <c r="L12">
-        <v>0.9751566871646986</v>
+        <v>1.046212627364843</v>
       </c>
       <c r="M12">
-        <v>0.9906224721564675</v>
+        <v>1.061544891313652</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.949003601053214</v>
+        <v>1.045280860657811</v>
       </c>
       <c r="D13">
-        <v>0.9809435120462441</v>
+        <v>1.050881886394824</v>
       </c>
       <c r="E13">
-        <v>0.9598044503964565</v>
+        <v>1.04271199514248</v>
       </c>
       <c r="F13">
-        <v>0.9756222297412145</v>
+        <v>1.058105119197538</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028896642659941</v>
+        <v>1.040515421255381</v>
       </c>
       <c r="J13">
-        <v>0.9810336087741226</v>
+        <v>1.051842191434823</v>
       </c>
       <c r="K13">
-        <v>0.9963998471935351</v>
+        <v>1.05442944460467</v>
       </c>
       <c r="L13">
-        <v>0.9756977090648842</v>
+        <v>1.046289466806597</v>
       </c>
       <c r="M13">
-        <v>0.9911862002007316</v>
+        <v>1.061626654758394</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9512626739295494</v>
+        <v>1.045603649009503</v>
       </c>
       <c r="D14">
-        <v>0.982745767239144</v>
+        <v>1.051141683496601</v>
       </c>
       <c r="E14">
-        <v>0.9617579139718521</v>
+        <v>1.042996032657095</v>
       </c>
       <c r="F14">
-        <v>0.9776459148074275</v>
+        <v>1.058404811641828</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029731725174158</v>
+        <v>1.040609432642419</v>
       </c>
       <c r="J14">
-        <v>0.9828523708236628</v>
+        <v>1.052103652662797</v>
       </c>
       <c r="K14">
-        <v>0.9980179844876294</v>
+        <v>1.054657206737893</v>
       </c>
       <c r="L14">
-        <v>0.9774569158937202</v>
+        <v>1.0465410852743</v>
       </c>
       <c r="M14">
-        <v>0.9930196195889813</v>
+        <v>1.061894427598679</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9526416829469645</v>
+        <v>1.045802423270013</v>
       </c>
       <c r="D15">
-        <v>0.9838462804928586</v>
+        <v>1.051301660268451</v>
       </c>
       <c r="E15">
-        <v>0.9629505776759004</v>
+        <v>1.043170932305514</v>
       </c>
       <c r="F15">
-        <v>0.9788817212401523</v>
+        <v>1.058589372265889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030241169495166</v>
+        <v>1.040667274336175</v>
       </c>
       <c r="J15">
-        <v>0.9839625768370742</v>
+        <v>1.05226463816042</v>
       </c>
       <c r="K15">
-        <v>0.999005737685385</v>
+        <v>1.054797434153514</v>
       </c>
       <c r="L15">
-        <v>0.9785306953524363</v>
+        <v>1.046695999977918</v>
       </c>
       <c r="M15">
-        <v>0.994138984777427</v>
+        <v>1.062059311233691</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9604816620603961</v>
+        <v>1.04695776979082</v>
       </c>
       <c r="D16">
-        <v>0.990107968032203</v>
+        <v>1.052231390338559</v>
       </c>
       <c r="E16">
-        <v>0.9697339950226593</v>
+        <v>1.044187332260473</v>
       </c>
       <c r="F16">
-        <v>0.9859144764863571</v>
+        <v>1.059662238854433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033132546985644</v>
+        <v>1.041002694386312</v>
       </c>
       <c r="J16">
-        <v>0.990273794915456</v>
+        <v>1.053199987301172</v>
       </c>
       <c r="K16">
-        <v>1.004620942430458</v>
+        <v>1.055612037233869</v>
       </c>
       <c r="L16">
-        <v>0.9846337352603983</v>
+        <v>1.047595917597794</v>
       </c>
       <c r="M16">
-        <v>1.000505352226663</v>
+        <v>1.063017491483492</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9652454987004087</v>
+        <v>1.04768109282549</v>
       </c>
       <c r="D17">
-        <v>0.9939167798299472</v>
+        <v>1.052813363017272</v>
       </c>
       <c r="E17">
-        <v>0.9738580507075039</v>
+        <v>1.044823507791792</v>
       </c>
       <c r="F17">
-        <v>0.9901934836038391</v>
+        <v>1.060334041436656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034884957721778</v>
+        <v>1.041212005428692</v>
       </c>
       <c r="J17">
-        <v>0.9941080171383889</v>
+        <v>1.05378526396752</v>
       </c>
       <c r="K17">
-        <v>1.00803231732126</v>
+        <v>1.056121636891838</v>
       </c>
       <c r="L17">
-        <v>0.9883405131018274</v>
+        <v>1.048158883683359</v>
       </c>
       <c r="M17">
-        <v>1.004375669482755</v>
+        <v>1.063617214348593</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9679724086993373</v>
+        <v>1.048102499452586</v>
       </c>
       <c r="D18">
-        <v>0.9960983109222433</v>
+        <v>1.053152382804493</v>
       </c>
       <c r="E18">
-        <v>0.9762194377381764</v>
+        <v>1.045194085449997</v>
       </c>
       <c r="F18">
-        <v>0.9926447679707668</v>
+        <v>1.060725474175846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035886390486482</v>
+        <v>1.041333702966754</v>
       </c>
       <c r="J18">
-        <v>0.9963024771768816</v>
+        <v>1.054126131915772</v>
       </c>
       <c r="K18">
-        <v>1.009984734190937</v>
+        <v>1.056418385848876</v>
       </c>
       <c r="L18">
-        <v>0.9904616808841834</v>
+        <v>1.048486707498538</v>
       </c>
       <c r="M18">
-        <v>1.006591681703579</v>
+        <v>1.063966553335066</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9688937627485577</v>
+        <v>1.048246104875314</v>
       </c>
       <c r="D19">
-        <v>0.9968356024076842</v>
+        <v>1.053267906518503</v>
       </c>
       <c r="E19">
-        <v>0.9770174008217406</v>
+        <v>1.045320359879788</v>
       </c>
       <c r="F19">
-        <v>0.993473305286147</v>
+        <v>1.060858872255759</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036224458376617</v>
+        <v>1.041375132751188</v>
       </c>
       <c r="J19">
-        <v>0.9970438688414924</v>
+        <v>1.054242272456048</v>
       </c>
       <c r="K19">
-        <v>1.010644343890617</v>
+        <v>1.056519486625203</v>
       </c>
       <c r="L19">
-        <v>0.9911782511979089</v>
+        <v>1.048598395111163</v>
       </c>
       <c r="M19">
-        <v>1.007340503013644</v>
+        <v>1.064085589865091</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9647398166711113</v>
+        <v>1.047603538523086</v>
       </c>
       <c r="D20">
-        <v>0.9935123358337545</v>
+        <v>1.05275096797762</v>
       </c>
       <c r="E20">
-        <v>0.9734202065104932</v>
+        <v>1.044755303292519</v>
       </c>
       <c r="F20">
-        <v>0.9897390654185815</v>
+        <v>1.06026200678976</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034699112637876</v>
+        <v>1.041189588734436</v>
       </c>
       <c r="J20">
-        <v>0.9937010456943861</v>
+        <v>1.053722522624628</v>
       </c>
       <c r="K20">
-        <v>1.007670230396995</v>
+        <v>1.056067012667542</v>
       </c>
       <c r="L20">
-        <v>0.987947105401722</v>
+        <v>1.048098539235148</v>
       </c>
       <c r="M20">
-        <v>1.003964772924496</v>
+        <v>1.063552918425883</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9506001422482097</v>
+        <v>1.04550861807105</v>
       </c>
       <c r="D21">
-        <v>0.9822171328303594</v>
+        <v>1.051065199088407</v>
       </c>
       <c r="E21">
-        <v>0.9611849658658923</v>
+        <v>1.042912412648848</v>
       </c>
       <c r="F21">
-        <v>0.9770523141254325</v>
+        <v>1.058316578425941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029486881314036</v>
+        <v>1.040581765691919</v>
       </c>
       <c r="J21">
-        <v>0.9823189760947606</v>
+        <v>1.052026681671574</v>
       </c>
       <c r="K21">
-        <v>0.9975434249013618</v>
+        <v>1.05459015823478</v>
       </c>
       <c r="L21">
-        <v>0.976941002379405</v>
+        <v>1.046467014052367</v>
       </c>
       <c r="M21">
-        <v>0.9924818816054766</v>
+        <v>1.061815596047211</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9411572316002897</v>
+        <v>1.044186835949537</v>
       </c>
       <c r="D22">
-        <v>0.9746896666134786</v>
+        <v>1.050001251478125</v>
       </c>
       <c r="E22">
-        <v>0.9530229937941319</v>
+        <v>1.04174913554555</v>
       </c>
       <c r="F22">
-        <v>0.9686011897588921</v>
+        <v>1.057089506206535</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025991567409788</v>
+        <v>1.040196036733284</v>
       </c>
       <c r="J22">
-        <v>0.9747164175566773</v>
+        <v>1.050955678042136</v>
       </c>
       <c r="K22">
-        <v>0.9907797720472831</v>
+        <v>1.053657058099633</v>
       </c>
       <c r="L22">
-        <v>0.9695862764231361</v>
+        <v>1.045436171283156</v>
       </c>
       <c r="M22">
-        <v>0.9848214244400511</v>
+        <v>1.060718918962502</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9462202634533059</v>
+        <v>1.04488798358006</v>
       </c>
       <c r="D23">
-        <v>0.9787240315475225</v>
+        <v>1.050565658769394</v>
       </c>
       <c r="E23">
-        <v>0.9573982432506352</v>
+        <v>1.042366251550456</v>
       </c>
       <c r="F23">
-        <v>0.973130273691722</v>
+        <v>1.057740377092088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027866916254493</v>
+        <v>1.040400859581229</v>
       </c>
       <c r="J23">
-        <v>0.9787927226725374</v>
+        <v>1.051523894990701</v>
       </c>
       <c r="K23">
-        <v>0.9944061922615427</v>
+        <v>1.054152148225783</v>
       </c>
       <c r="L23">
-        <v>0.9735300020787567</v>
+        <v>1.045983124456914</v>
       </c>
       <c r="M23">
-        <v>0.9889278454539316</v>
+        <v>1.0613007070767</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9649684716642599</v>
+        <v>1.047638583504454</v>
       </c>
       <c r="D24">
-        <v>0.9936952098749342</v>
+        <v>1.052779162954167</v>
       </c>
       <c r="E24">
-        <v>0.9736181850147743</v>
+        <v>1.044786123492072</v>
       </c>
       <c r="F24">
-        <v>0.9899445344786508</v>
+        <v>1.060294557438259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034783151734486</v>
+        <v>1.041199719078743</v>
       </c>
       <c r="J24">
-        <v>0.9938850675937723</v>
+        <v>1.053750874324706</v>
       </c>
       <c r="K24">
-        <v>1.007833956794113</v>
+        <v>1.056091696522842</v>
       </c>
       <c r="L24">
-        <v>0.9881249952239909</v>
+        <v>1.048125807976682</v>
       </c>
       <c r="M24">
-        <v>1.004150566883581</v>
+        <v>1.063581972435238</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9847182405472928</v>
+        <v>1.05081114477775</v>
       </c>
       <c r="D25">
-        <v>1.009513979420032</v>
+        <v>1.055330804957632</v>
       </c>
       <c r="E25">
-        <v>0.9907303257660712</v>
+        <v>1.047574989343327</v>
       </c>
       <c r="F25">
-        <v>1.007727668209971</v>
+        <v>1.063242198223798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042005085909366</v>
+        <v>1.042111476146532</v>
       </c>
       <c r="J25">
-        <v>1.009771073358947</v>
+        <v>1.05631506035596</v>
       </c>
       <c r="K25">
-        <v>1.021966376820096</v>
+        <v>1.058323193510337</v>
       </c>
       <c r="L25">
-        <v>1.003474266339063</v>
+        <v>1.050590967252725</v>
       </c>
       <c r="M25">
-        <v>1.020207194924394</v>
+        <v>1.06621091043638</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053326784846613</v>
+        <v>0.9991916969358126</v>
       </c>
       <c r="D2">
-        <v>1.05735288753316</v>
+        <v>1.021132015036408</v>
       </c>
       <c r="E2">
-        <v>1.049784570808108</v>
+        <v>1.003282633302335</v>
       </c>
       <c r="F2">
-        <v>1.065580750290415</v>
+        <v>1.020803809268955</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042826644038349</v>
+        <v>1.047241201549589</v>
       </c>
       <c r="J2">
-        <v>1.058344714004051</v>
+        <v>1.021396611117008</v>
       </c>
       <c r="K2">
-        <v>1.060088090727344</v>
+        <v>1.032304592920734</v>
       </c>
       <c r="L2">
-        <v>1.052540665006015</v>
+        <v>1.014696424489249</v>
       </c>
       <c r="M2">
-        <v>1.068293606303547</v>
+        <v>1.031980726947129</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055145191482075</v>
+        <v>1.009086897700329</v>
       </c>
       <c r="D3">
-        <v>1.058813802458063</v>
+        <v>1.029084814567774</v>
       </c>
       <c r="E3">
-        <v>1.051380687837002</v>
+        <v>1.011867968988423</v>
       </c>
       <c r="F3">
-        <v>1.067271853948689</v>
+        <v>1.029764362145005</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043339064684925</v>
+        <v>1.05078622371428</v>
       </c>
       <c r="J3">
-        <v>1.059809744085155</v>
+        <v>1.029332873071047</v>
       </c>
       <c r="K3">
-        <v>1.061361181682894</v>
+        <v>1.039358598063641</v>
       </c>
       <c r="L3">
-        <v>1.05394707619614</v>
+        <v>1.022351216004995</v>
       </c>
       <c r="M3">
-        <v>1.069797949821406</v>
+        <v>1.040030056262165</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056318172525178</v>
+        <v>1.01523983046188</v>
       </c>
       <c r="D4">
-        <v>1.05975583367735</v>
+        <v>1.034033150965177</v>
       </c>
       <c r="E4">
-        <v>1.052409786857123</v>
+        <v>1.017207211266479</v>
       </c>
       <c r="F4">
-        <v>1.068363033590878</v>
+        <v>1.035344417047549</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043667506075708</v>
+        <v>1.052973830861434</v>
       </c>
       <c r="J4">
-        <v>1.060753808169771</v>
+        <v>1.034261573434498</v>
       </c>
       <c r="K4">
-        <v>1.062181170397339</v>
+        <v>1.043737470137684</v>
       </c>
       <c r="L4">
-        <v>1.054852949132864</v>
+        <v>1.027102303185776</v>
       </c>
       <c r="M4">
-        <v>1.070767819387793</v>
+        <v>1.045034189391634</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05681043870908</v>
+        <v>1.017771100463538</v>
       </c>
       <c r="D5">
-        <v>1.060151092597324</v>
+        <v>1.03606945582408</v>
       </c>
       <c r="E5">
-        <v>1.052841551764208</v>
+        <v>1.019403814648498</v>
       </c>
       <c r="F5">
-        <v>1.068821044613688</v>
+        <v>1.037641836684438</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043804839804518</v>
+        <v>1.053869694104731</v>
       </c>
       <c r="J5">
-        <v>1.061149772308974</v>
+        <v>1.036287641551732</v>
       </c>
       <c r="K5">
-        <v>1.062525000240248</v>
+        <v>1.045537014396346</v>
       </c>
       <c r="L5">
-        <v>1.055232795306992</v>
+        <v>1.029054685865517</v>
       </c>
       <c r="M5">
-        <v>1.071174719554556</v>
+        <v>1.047092472570118</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056893042766477</v>
+        <v>1.018192980555798</v>
       </c>
       <c r="D6">
-        <v>1.06021741349697</v>
+        <v>1.036408871770727</v>
       </c>
       <c r="E6">
-        <v>1.052913996545844</v>
+        <v>1.019769918395177</v>
       </c>
       <c r="F6">
-        <v>1.068897904863724</v>
+        <v>1.0380248446333</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043827855344991</v>
+        <v>1.054018761437168</v>
       </c>
       <c r="J6">
-        <v>1.061216202897955</v>
+        <v>1.036625226686685</v>
       </c>
       <c r="K6">
-        <v>1.06258267876948</v>
+        <v>1.045836825146369</v>
       </c>
       <c r="L6">
-        <v>1.055296515960157</v>
+        <v>1.029379953911676</v>
       </c>
       <c r="M6">
-        <v>1.071242991462382</v>
+        <v>1.047435495195287</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056324753544351</v>
+        <v>1.015273865741608</v>
       </c>
       <c r="D7">
-        <v>1.059761118156986</v>
+        <v>1.034060528828703</v>
       </c>
       <c r="E7">
-        <v>1.052415559510554</v>
+        <v>1.017236746465854</v>
       </c>
       <c r="F7">
-        <v>1.068369156367585</v>
+        <v>1.035375300949304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043669344047017</v>
+        <v>1.052985892955643</v>
       </c>
       <c r="J7">
-        <v>1.060759102657734</v>
+        <v>1.034288822108571</v>
       </c>
       <c r="K7">
-        <v>1.062185768161253</v>
+        <v>1.043761674332912</v>
       </c>
       <c r="L7">
-        <v>1.054858028496971</v>
+        <v>1.027128563529156</v>
       </c>
       <c r="M7">
-        <v>1.070773259660678</v>
+        <v>1.045061866596898</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05394209086693</v>
+        <v>1.002590399701374</v>
       </c>
       <c r="D8">
-        <v>1.057847297775571</v>
+        <v>1.023862767076472</v>
       </c>
       <c r="E8">
-        <v>1.050324761095038</v>
+        <v>1.006231194332703</v>
       </c>
       <c r="F8">
-        <v>1.066152913502679</v>
+        <v>1.023879619418954</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043000470553091</v>
+        <v>1.048462304674487</v>
       </c>
       <c r="J8">
-        <v>1.058840646259902</v>
+        <v>1.024123725894135</v>
       </c>
       <c r="K8">
-        <v>1.060519129628746</v>
+        <v>1.034728919635745</v>
       </c>
       <c r="L8">
-        <v>1.053016840751953</v>
+        <v>1.017327416536494</v>
       </c>
       <c r="M8">
-        <v>1.068802748432776</v>
+        <v>1.034745556813372</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049714739621802</v>
+        <v>0.9780957348384532</v>
       </c>
       <c r="D9">
-        <v>1.054449166956319</v>
+        <v>1.004204745222333</v>
       </c>
       <c r="E9">
-        <v>1.046611465790499</v>
+        <v>0.9849898411028342</v>
       </c>
       <c r="F9">
-        <v>1.062223324188587</v>
+        <v>1.00175677325988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041797590977813</v>
+        <v>1.039592185052463</v>
       </c>
       <c r="J9">
-        <v>1.055429458626092</v>
+        <v>1.004446428426846</v>
       </c>
       <c r="K9">
-        <v>1.057552712841915</v>
+        <v>1.017229969751288</v>
       </c>
       <c r="L9">
-        <v>1.049739811779812</v>
+        <v>0.9983312344830132</v>
       </c>
       <c r="M9">
-        <v>1.065302665906675</v>
+        <v>1.014821412201508</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046875959756139</v>
+        <v>0.9599360393149082</v>
       </c>
       <c r="D10">
-        <v>1.052165562565986</v>
+        <v>0.9896719169687427</v>
       </c>
       <c r="E10">
-        <v>1.044115371162573</v>
+        <v>0.9692617525772241</v>
       </c>
       <c r="F10">
-        <v>1.059586261640353</v>
+        <v>0.9854246548593861</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040978987272023</v>
+        <v>1.032931609160525</v>
       </c>
       <c r="J10">
-        <v>1.053133775418171</v>
+        <v>0.9898346059533228</v>
       </c>
       <c r="K10">
-        <v>1.055554380637495</v>
+        <v>1.004230186073679</v>
       </c>
       <c r="L10">
-        <v>1.047532222864535</v>
+        <v>0.984209096098251</v>
       </c>
       <c r="M10">
-        <v>1.062949653117611</v>
+        <v>1.000062154578073</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045641597991867</v>
+        <v>0.9515266549793326</v>
       </c>
       <c r="D11">
-        <v>1.051172225885933</v>
+        <v>0.9829564154016546</v>
       </c>
       <c r="E11">
-        <v>1.043029424309392</v>
+        <v>0.9619862112107238</v>
       </c>
       <c r="F11">
-        <v>1.058440046503481</v>
+        <v>0.9778824544476168</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040620478489499</v>
+        <v>1.029829266004562</v>
       </c>
       <c r="J11">
-        <v>1.052134388579281</v>
+        <v>0.9830648969973645</v>
       </c>
       <c r="K11">
-        <v>1.054683979983303</v>
+        <v>0.9982070689316777</v>
       </c>
       <c r="L11">
-        <v>1.046570662750668</v>
+        <v>0.9776624732764438</v>
       </c>
       <c r="M11">
-        <v>1.06192590705435</v>
+        <v>0.9932338866340295</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045182304129151</v>
+        <v>0.9483088983396361</v>
       </c>
       <c r="D12">
-        <v>1.050802560020184</v>
+        <v>0.9803894374810329</v>
       </c>
       <c r="E12">
-        <v>1.042625265688195</v>
+        <v>0.9592038143681941</v>
       </c>
       <c r="F12">
-        <v>1.05801361807605</v>
+        <v>0.9750001121769603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040486696597368</v>
+        <v>1.028639715329573</v>
       </c>
       <c r="J12">
-        <v>1.051762350543846</v>
+        <v>0.9804743016949617</v>
       </c>
       <c r="K12">
-        <v>1.054359890600327</v>
+        <v>0.9959022422243929</v>
       </c>
       <c r="L12">
-        <v>1.046212627364843</v>
+        <v>0.9751566871646996</v>
       </c>
       <c r="M12">
-        <v>1.061544891313652</v>
+        <v>0.9906224721564695</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045280860657811</v>
+        <v>0.9490036010532134</v>
       </c>
       <c r="D13">
-        <v>1.050881886394824</v>
+        <v>0.9809435120462429</v>
       </c>
       <c r="E13">
-        <v>1.04271199514248</v>
+        <v>0.9598044503964555</v>
       </c>
       <c r="F13">
-        <v>1.058105119197538</v>
+        <v>0.9756222297412134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040515421255381</v>
+        <v>1.028896642659941</v>
       </c>
       <c r="J13">
-        <v>1.051842191434823</v>
+        <v>0.9810336087741217</v>
       </c>
       <c r="K13">
-        <v>1.05442944460467</v>
+        <v>0.9963998471935344</v>
       </c>
       <c r="L13">
-        <v>1.046289466806597</v>
+        <v>0.9756977090648834</v>
       </c>
       <c r="M13">
-        <v>1.061626654758394</v>
+        <v>0.9911862002007301</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045603649009503</v>
+        <v>0.9512626739295504</v>
       </c>
       <c r="D14">
-        <v>1.051141683496601</v>
+        <v>0.9827457672391452</v>
       </c>
       <c r="E14">
-        <v>1.042996032657095</v>
+        <v>0.9617579139718526</v>
       </c>
       <c r="F14">
-        <v>1.058404811641828</v>
+        <v>0.9776459148074288</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040609432642419</v>
+        <v>1.029731725174159</v>
       </c>
       <c r="J14">
-        <v>1.052103652662797</v>
+        <v>0.9828523708236639</v>
       </c>
       <c r="K14">
-        <v>1.054657206737893</v>
+        <v>0.9980179844876305</v>
       </c>
       <c r="L14">
-        <v>1.0465410852743</v>
+        <v>0.9774569158937207</v>
       </c>
       <c r="M14">
-        <v>1.061894427598679</v>
+        <v>0.9930196195889825</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045802423270013</v>
+        <v>0.9526416829469635</v>
       </c>
       <c r="D15">
-        <v>1.051301660268451</v>
+        <v>0.9838462804928582</v>
       </c>
       <c r="E15">
-        <v>1.043170932305514</v>
+        <v>0.9629505776759</v>
       </c>
       <c r="F15">
-        <v>1.058589372265889</v>
+        <v>0.9788817212401512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040667274336175</v>
+        <v>1.030241169495166</v>
       </c>
       <c r="J15">
-        <v>1.05226463816042</v>
+        <v>0.9839625768370737</v>
       </c>
       <c r="K15">
-        <v>1.054797434153514</v>
+        <v>0.9990057376853846</v>
       </c>
       <c r="L15">
-        <v>1.046695999977918</v>
+        <v>0.9785306953524355</v>
       </c>
       <c r="M15">
-        <v>1.062059311233691</v>
+        <v>0.9941389847774261</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04695776979082</v>
+        <v>0.9604816620603939</v>
       </c>
       <c r="D16">
-        <v>1.052231390338559</v>
+        <v>0.9901079680322007</v>
       </c>
       <c r="E16">
-        <v>1.044187332260473</v>
+        <v>0.9697339950226572</v>
       </c>
       <c r="F16">
-        <v>1.059662238854433</v>
+        <v>0.9859144764863549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041002694386312</v>
+        <v>1.033132546985643</v>
       </c>
       <c r="J16">
-        <v>1.053199987301172</v>
+        <v>0.9902737949154538</v>
       </c>
       <c r="K16">
-        <v>1.055612037233869</v>
+        <v>1.004620942430456</v>
       </c>
       <c r="L16">
-        <v>1.047595917597794</v>
+        <v>0.9846337352603963</v>
       </c>
       <c r="M16">
-        <v>1.063017491483492</v>
+        <v>1.00050535222666</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04768109282549</v>
+        <v>0.9652454987004113</v>
       </c>
       <c r="D17">
-        <v>1.052813363017272</v>
+        <v>0.9939167798299495</v>
       </c>
       <c r="E17">
-        <v>1.044823507791792</v>
+        <v>0.9738580507075065</v>
       </c>
       <c r="F17">
-        <v>1.060334041436656</v>
+        <v>0.9901934836038417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041212005428692</v>
+        <v>1.03488495772178</v>
       </c>
       <c r="J17">
-        <v>1.05378526396752</v>
+        <v>0.9941080171383915</v>
       </c>
       <c r="K17">
-        <v>1.056121636891838</v>
+        <v>1.008032317321262</v>
       </c>
       <c r="L17">
-        <v>1.048158883683359</v>
+        <v>0.9883405131018298</v>
       </c>
       <c r="M17">
-        <v>1.063617214348593</v>
+        <v>1.004375669482758</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048102499452586</v>
+        <v>0.9679724086993384</v>
       </c>
       <c r="D18">
-        <v>1.053152382804493</v>
+        <v>0.9960983109222442</v>
       </c>
       <c r="E18">
-        <v>1.045194085449997</v>
+        <v>0.9762194377381774</v>
       </c>
       <c r="F18">
-        <v>1.060725474175846</v>
+        <v>0.9926447679707676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041333702966754</v>
+        <v>1.035886390486483</v>
       </c>
       <c r="J18">
-        <v>1.054126131915772</v>
+        <v>0.9963024771768827</v>
       </c>
       <c r="K18">
-        <v>1.056418385848876</v>
+        <v>1.009984734190937</v>
       </c>
       <c r="L18">
-        <v>1.048486707498538</v>
+        <v>0.9904616808841844</v>
       </c>
       <c r="M18">
-        <v>1.063966553335066</v>
+        <v>1.006591681703579</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048246104875314</v>
+        <v>0.968893762748558</v>
       </c>
       <c r="D19">
-        <v>1.053267906518503</v>
+        <v>0.9968356024076847</v>
       </c>
       <c r="E19">
-        <v>1.045320359879788</v>
+        <v>0.9770174008217403</v>
       </c>
       <c r="F19">
-        <v>1.060858872255759</v>
+        <v>0.9934733052861472</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041375132751188</v>
+        <v>1.036224458376617</v>
       </c>
       <c r="J19">
-        <v>1.054242272456048</v>
+        <v>0.9970438688414928</v>
       </c>
       <c r="K19">
-        <v>1.056519486625203</v>
+        <v>1.010644343890617</v>
       </c>
       <c r="L19">
-        <v>1.048598395111163</v>
+        <v>0.9911782511979087</v>
       </c>
       <c r="M19">
-        <v>1.064085589865091</v>
+        <v>1.007340503013644</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047603538523086</v>
+        <v>0.9647398166711129</v>
       </c>
       <c r="D20">
-        <v>1.05275096797762</v>
+        <v>0.9935123358337562</v>
       </c>
       <c r="E20">
-        <v>1.044755303292519</v>
+        <v>0.9734202065104947</v>
       </c>
       <c r="F20">
-        <v>1.06026200678976</v>
+        <v>0.989739065418583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041189588734436</v>
+        <v>1.034699112637877</v>
       </c>
       <c r="J20">
-        <v>1.053722522624628</v>
+        <v>0.9937010456943877</v>
       </c>
       <c r="K20">
-        <v>1.056067012667542</v>
+        <v>1.007670230396996</v>
       </c>
       <c r="L20">
-        <v>1.048098539235148</v>
+        <v>0.9879471054017233</v>
       </c>
       <c r="M20">
-        <v>1.063552918425883</v>
+        <v>1.003964772924498</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04550861807105</v>
+        <v>0.9506001422482102</v>
       </c>
       <c r="D21">
-        <v>1.051065199088407</v>
+        <v>0.9822171328303596</v>
       </c>
       <c r="E21">
-        <v>1.042912412648848</v>
+        <v>0.9611849658658931</v>
       </c>
       <c r="F21">
-        <v>1.058316578425941</v>
+        <v>0.977052314125433</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040581765691919</v>
+        <v>1.029486881314036</v>
       </c>
       <c r="J21">
-        <v>1.052026681671574</v>
+        <v>0.9823189760947612</v>
       </c>
       <c r="K21">
-        <v>1.05459015823478</v>
+        <v>0.9975434249013622</v>
       </c>
       <c r="L21">
-        <v>1.046467014052367</v>
+        <v>0.9769410023794058</v>
       </c>
       <c r="M21">
-        <v>1.061815596047211</v>
+        <v>0.9924818816054772</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044186835949537</v>
+        <v>0.9411572316002856</v>
       </c>
       <c r="D22">
-        <v>1.050001251478125</v>
+        <v>0.9746896666134753</v>
       </c>
       <c r="E22">
-        <v>1.04174913554555</v>
+        <v>0.9530229937941282</v>
       </c>
       <c r="F22">
-        <v>1.057089506206535</v>
+        <v>0.9686011897588889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040196036733284</v>
+        <v>1.025991567409786</v>
       </c>
       <c r="J22">
-        <v>1.050955678042136</v>
+        <v>0.9747164175566737</v>
       </c>
       <c r="K22">
-        <v>1.053657058099633</v>
+        <v>0.9907797720472802</v>
       </c>
       <c r="L22">
-        <v>1.045436171283156</v>
+        <v>0.9695862764231328</v>
       </c>
       <c r="M22">
-        <v>1.060718918962502</v>
+        <v>0.9848214244400478</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04488798358006</v>
+        <v>0.9462202634533065</v>
       </c>
       <c r="D23">
-        <v>1.050565658769394</v>
+        <v>0.9787240315475233</v>
       </c>
       <c r="E23">
-        <v>1.042366251550456</v>
+        <v>0.9573982432506353</v>
       </c>
       <c r="F23">
-        <v>1.057740377092088</v>
+        <v>0.9731302736917226</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040400859581229</v>
+        <v>1.027866916254494</v>
       </c>
       <c r="J23">
-        <v>1.051523894990701</v>
+        <v>0.9787927226725378</v>
       </c>
       <c r="K23">
-        <v>1.054152148225783</v>
+        <v>0.9944061922615433</v>
       </c>
       <c r="L23">
-        <v>1.045983124456914</v>
+        <v>0.9735300020787568</v>
       </c>
       <c r="M23">
-        <v>1.0613007070767</v>
+        <v>0.9889278454539323</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047638583504454</v>
+        <v>0.9649684716642609</v>
       </c>
       <c r="D24">
-        <v>1.052779162954167</v>
+        <v>0.9936952098749353</v>
       </c>
       <c r="E24">
-        <v>1.044786123492072</v>
+        <v>0.9736181850147754</v>
       </c>
       <c r="F24">
-        <v>1.060294557438259</v>
+        <v>0.9899445344786523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041199719078743</v>
+        <v>1.034783151734487</v>
       </c>
       <c r="J24">
-        <v>1.053750874324706</v>
+        <v>0.9938850675937735</v>
       </c>
       <c r="K24">
-        <v>1.056091696522842</v>
+        <v>1.007833956794115</v>
       </c>
       <c r="L24">
-        <v>1.048125807976682</v>
+        <v>0.988124995223992</v>
       </c>
       <c r="M24">
-        <v>1.063581972435238</v>
+        <v>1.004150566883583</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05081114477775</v>
+        <v>0.9847182405472933</v>
       </c>
       <c r="D25">
-        <v>1.055330804957632</v>
+        <v>1.009513979420033</v>
       </c>
       <c r="E25">
-        <v>1.047574989343327</v>
+        <v>0.9907303257660717</v>
       </c>
       <c r="F25">
-        <v>1.063242198223798</v>
+        <v>1.007727668209972</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042111476146532</v>
+        <v>1.042005085909366</v>
       </c>
       <c r="J25">
-        <v>1.05631506035596</v>
+        <v>1.009771073358947</v>
       </c>
       <c r="K25">
-        <v>1.058323193510337</v>
+        <v>1.021966376820097</v>
       </c>
       <c r="L25">
-        <v>1.050590967252725</v>
+        <v>1.003474266339063</v>
       </c>
       <c r="M25">
-        <v>1.06621091043638</v>
+        <v>1.020207194924394</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9991916969358126</v>
+        <v>1.02435649919326</v>
       </c>
       <c r="D2">
-        <v>1.021132015036408</v>
+        <v>1.039830159601758</v>
       </c>
       <c r="E2">
-        <v>1.003282633302335</v>
+        <v>1.02717984291025</v>
       </c>
       <c r="F2">
-        <v>1.020803809268955</v>
+        <v>1.042142467237904</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047241201549589</v>
+        <v>1.052718766883361</v>
       </c>
       <c r="J2">
-        <v>1.021396611117008</v>
+        <v>1.045832340028977</v>
       </c>
       <c r="K2">
-        <v>1.032304592920734</v>
+        <v>1.050761143780505</v>
       </c>
       <c r="L2">
-        <v>1.014696424489249</v>
+        <v>1.038273073375482</v>
       </c>
       <c r="M2">
-        <v>1.031980726947129</v>
+        <v>1.053044326104877</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050553347651521</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046962762029832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +486,105 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009086897700329</v>
+        <v>1.028763123621095</v>
       </c>
       <c r="D3">
-        <v>1.029084814567774</v>
+        <v>1.042819028723241</v>
       </c>
       <c r="E3">
-        <v>1.011867968988423</v>
+        <v>1.030745137001545</v>
       </c>
       <c r="F3">
-        <v>1.029764362145005</v>
+        <v>1.045194782389143</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05078622371428</v>
+        <v>1.053951921718545</v>
       </c>
       <c r="J3">
-        <v>1.029332873071047</v>
+        <v>1.048499247604463</v>
       </c>
       <c r="K3">
-        <v>1.039358598063641</v>
+        <v>1.052931848059166</v>
       </c>
       <c r="L3">
-        <v>1.022351216004995</v>
+        <v>1.040999179215149</v>
       </c>
       <c r="M3">
-        <v>1.040030056262165</v>
+        <v>1.05528028790103</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052322935169696</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048494971753482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.01523983046188</v>
+        <v>1.031560287521585</v>
       </c>
       <c r="D4">
-        <v>1.034033150965177</v>
+        <v>1.044720555001838</v>
       </c>
       <c r="E4">
-        <v>1.017207211266479</v>
+        <v>1.033013445736509</v>
       </c>
       <c r="F4">
-        <v>1.035344417047549</v>
+        <v>1.047140014399671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052973830861434</v>
+        <v>1.054726596965059</v>
       </c>
       <c r="J4">
-        <v>1.034261573434498</v>
+        <v>1.050189738420713</v>
       </c>
       <c r="K4">
-        <v>1.043737470137684</v>
+        <v>1.054307616550413</v>
       </c>
       <c r="L4">
-        <v>1.027102303185776</v>
+        <v>1.042729108644941</v>
       </c>
       <c r="M4">
-        <v>1.045034189391634</v>
+        <v>1.056700938045398</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053447265615996</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049468620989206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017771100463538</v>
+        <v>1.032729105253843</v>
       </c>
       <c r="D5">
-        <v>1.03606945582408</v>
+        <v>1.045518333854795</v>
       </c>
       <c r="E5">
-        <v>1.019403814648498</v>
+        <v>1.033963293816965</v>
       </c>
       <c r="F5">
-        <v>1.037641836684438</v>
+        <v>1.047955323217137</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053869694104731</v>
+        <v>1.055050477648292</v>
       </c>
       <c r="J5">
-        <v>1.036287641551732</v>
+        <v>1.050897549733564</v>
       </c>
       <c r="K5">
-        <v>1.045537014396346</v>
+        <v>1.05488513635534</v>
       </c>
       <c r="L5">
-        <v>1.029054685865517</v>
+        <v>1.043453618781734</v>
       </c>
       <c r="M5">
-        <v>1.047092472570118</v>
+        <v>1.057296499681841</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053918604302257</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049884043026995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018192980555798</v>
+        <v>1.032931253626009</v>
       </c>
       <c r="D6">
-        <v>1.036408871770727</v>
+        <v>1.045659062662095</v>
       </c>
       <c r="E6">
-        <v>1.019769918395177</v>
+        <v>1.034128622069077</v>
       </c>
       <c r="F6">
-        <v>1.0380248446333</v>
+        <v>1.048097241846127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054018761437168</v>
+        <v>1.055108999927452</v>
       </c>
       <c r="J6">
-        <v>1.036625226686685</v>
+        <v>1.051022393839293</v>
       </c>
       <c r="K6">
-        <v>1.045836825146369</v>
+        <v>1.054988854906442</v>
       </c>
       <c r="L6">
-        <v>1.029379953911676</v>
+        <v>1.043581103675363</v>
       </c>
       <c r="M6">
-        <v>1.047435495195287</v>
+        <v>1.057401513153601</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.054001713909469</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049966008119661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015273865741608</v>
+        <v>1.031593866775709</v>
       </c>
       <c r="D7">
-        <v>1.034060528828703</v>
+        <v>1.044750711508228</v>
       </c>
       <c r="E7">
-        <v>1.017236746465854</v>
+        <v>1.03304340110023</v>
       </c>
       <c r="F7">
-        <v>1.035375300949304</v>
+        <v>1.047165582096121</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052985892955643</v>
+        <v>1.05474300326016</v>
       </c>
       <c r="J7">
-        <v>1.034288822108571</v>
+        <v>1.05021671948126</v>
       </c>
       <c r="K7">
-        <v>1.043761674332912</v>
+        <v>1.05433461588209</v>
       </c>
       <c r="L7">
-        <v>1.027128563529156</v>
+        <v>1.042755857125772</v>
       </c>
       <c r="M7">
-        <v>1.045061866596898</v>
+        <v>1.056723408506854</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053465049167374</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049507563254567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002590399701374</v>
+        <v>1.025880078515928</v>
       </c>
       <c r="D8">
-        <v>1.023862767076472</v>
+        <v>1.040871745493718</v>
       </c>
       <c r="E8">
-        <v>1.006231194332703</v>
+        <v>1.028414984030036</v>
       </c>
       <c r="F8">
-        <v>1.023879619418954</v>
+        <v>1.043198886205996</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048462304674487</v>
+        <v>1.053155774310553</v>
       </c>
       <c r="J8">
-        <v>1.024123725894135</v>
+        <v>1.046763292947299</v>
       </c>
       <c r="K8">
-        <v>1.034728919635745</v>
+        <v>1.051525144047563</v>
       </c>
       <c r="L8">
-        <v>1.017327416536494</v>
+        <v>1.039223335352229</v>
       </c>
       <c r="M8">
-        <v>1.034745556813372</v>
+        <v>1.053823846852144</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.0511702773537</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047525603031783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9780957348384532</v>
+        <v>1.015346311387852</v>
       </c>
       <c r="D9">
-        <v>1.004204745222333</v>
+        <v>1.033745267965638</v>
       </c>
       <c r="E9">
-        <v>0.9849898411028342</v>
+        <v>1.019920754737253</v>
       </c>
       <c r="F9">
-        <v>1.00175677325988</v>
+        <v>1.035946372325484</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039592185052463</v>
+        <v>1.050155328204212</v>
       </c>
       <c r="J9">
-        <v>1.004446428426846</v>
+        <v>1.040368552228889</v>
       </c>
       <c r="K9">
-        <v>1.017229969751288</v>
+        <v>1.046313589166333</v>
       </c>
       <c r="L9">
-        <v>0.9983312344830132</v>
+        <v>1.03269869294059</v>
       </c>
       <c r="M9">
-        <v>1.014821412201508</v>
+        <v>1.048481975096021</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04694259341973</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043837613438904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9599360393149082</v>
+        <v>1.008102327940203</v>
       </c>
       <c r="D10">
-        <v>0.9896719169687427</v>
+        <v>1.028904232291923</v>
       </c>
       <c r="E10">
-        <v>0.9692617525772241</v>
+        <v>1.014126847061069</v>
       </c>
       <c r="F10">
-        <v>0.9854246548593861</v>
+        <v>1.031085692581925</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032931609160525</v>
+        <v>1.048087166525606</v>
       </c>
       <c r="J10">
-        <v>0.9898346059533228</v>
+        <v>1.035998129029413</v>
       </c>
       <c r="K10">
-        <v>1.004230186073679</v>
+        <v>1.042770512431769</v>
       </c>
       <c r="L10">
-        <v>0.984209096098251</v>
+        <v>1.028245636961146</v>
       </c>
       <c r="M10">
-        <v>1.000062154578073</v>
+        <v>1.044915486729429</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044171062027782</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041349137770974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9515266549793326</v>
+        <v>1.005689829136233</v>
       </c>
       <c r="D11">
-        <v>0.9829564154016546</v>
+        <v>1.027548986707763</v>
       </c>
       <c r="E11">
-        <v>0.9619862112107238</v>
+        <v>1.012331769122026</v>
       </c>
       <c r="F11">
-        <v>0.9778824544476168</v>
+        <v>1.030119987086102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029829266004562</v>
+        <v>1.047663685980979</v>
       </c>
       <c r="J11">
-        <v>0.9830648969973645</v>
+        <v>1.034827805395643</v>
       </c>
       <c r="K11">
-        <v>0.9982070689316777</v>
+        <v>1.041969421089346</v>
       </c>
       <c r="L11">
-        <v>0.9776624732764438</v>
+        <v>1.027024814099986</v>
       </c>
       <c r="M11">
-        <v>0.9932338866340295</v>
+        <v>1.044495393008657</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044271918156909</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040815325495563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9483088983396361</v>
+        <v>1.005077583345032</v>
       </c>
       <c r="D12">
-        <v>0.9803894374810329</v>
+        <v>1.027324142666899</v>
       </c>
       <c r="E12">
-        <v>0.9592038143681941</v>
+        <v>1.011942614598945</v>
       </c>
       <c r="F12">
-        <v>0.9750001121769603</v>
+        <v>1.030183627608085</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028639715329573</v>
+        <v>1.04768814247093</v>
       </c>
       <c r="J12">
-        <v>0.9804743016949617</v>
+        <v>1.034668594531316</v>
       </c>
       <c r="K12">
-        <v>0.9959022422243929</v>
+        <v>1.04194593266162</v>
       </c>
       <c r="L12">
-        <v>0.9751566871646996</v>
+        <v>1.02684453468129</v>
       </c>
       <c r="M12">
-        <v>0.9906224721564695</v>
+        <v>1.044754536649465</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044801260349657</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040798718660448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9490036010532134</v>
+        <v>1.005835593265732</v>
       </c>
       <c r="D13">
-        <v>0.9809435120462429</v>
+        <v>1.027980564707051</v>
       </c>
       <c r="E13">
-        <v>0.9598044503964555</v>
+        <v>1.012631127714368</v>
       </c>
       <c r="F13">
-        <v>0.9756222297412134</v>
+        <v>1.031074818422198</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028896642659941</v>
+        <v>1.048078921598345</v>
       </c>
       <c r="J13">
-        <v>0.9810336087741217</v>
+        <v>1.035303291598253</v>
       </c>
       <c r="K13">
-        <v>0.9963998471935344</v>
+        <v>1.042548339163135</v>
       </c>
       <c r="L13">
-        <v>0.9756977090648834</v>
+        <v>1.027477036012413</v>
       </c>
       <c r="M13">
-        <v>0.9911862002007301</v>
+        <v>1.045587824930306</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045735214930147</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041222161015338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9512626739295504</v>
+        <v>1.006985903648992</v>
       </c>
       <c r="D14">
-        <v>0.9827457672391452</v>
+        <v>1.02883880448723</v>
       </c>
       <c r="E14">
-        <v>0.9617579139718526</v>
+        <v>1.013600324479767</v>
       </c>
       <c r="F14">
-        <v>0.9776459148074288</v>
+        <v>1.032071876022661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029731725174159</v>
+        <v>1.048517656870969</v>
       </c>
       <c r="J14">
-        <v>0.9828523708236639</v>
+        <v>1.036106164407319</v>
       </c>
       <c r="K14">
-        <v>0.9980179844876305</v>
+        <v>1.043252896277042</v>
       </c>
       <c r="L14">
-        <v>0.9774569158937207</v>
+        <v>1.028286875495165</v>
       </c>
       <c r="M14">
-        <v>0.9930196195889825</v>
+        <v>1.04642950082733</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046572970592682</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041721711053887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9526416829469635</v>
+        <v>1.007573474212948</v>
       </c>
       <c r="D15">
-        <v>0.9838462804928582</v>
+        <v>1.02925141043958</v>
       </c>
       <c r="E15">
-        <v>0.9629505776759</v>
+        <v>1.014080171821343</v>
       </c>
       <c r="F15">
-        <v>0.9788817212401512</v>
+        <v>1.032513786732244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030241169495166</v>
+        <v>1.04871133592588</v>
       </c>
       <c r="J15">
-        <v>0.9839625768370737</v>
+        <v>1.036485342844827</v>
       </c>
       <c r="K15">
-        <v>0.9990057376853846</v>
+        <v>1.043573010797678</v>
       </c>
       <c r="L15">
-        <v>0.9785306953524355</v>
+        <v>1.028670872988882</v>
       </c>
       <c r="M15">
-        <v>0.9941389847774261</v>
+        <v>1.046778856662339</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046886458036346</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041953858500871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9604816620603939</v>
+        <v>1.010498304580696</v>
       </c>
       <c r="D16">
-        <v>0.9901079680322007</v>
+        <v>1.031180904813195</v>
       </c>
       <c r="E16">
-        <v>0.9697339950226572</v>
+        <v>1.016397036098332</v>
       </c>
       <c r="F16">
-        <v>0.9859144764863549</v>
+        <v>1.034433871854838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033132546985643</v>
+        <v>1.049526630279734</v>
       </c>
       <c r="J16">
-        <v>0.9902737949154538</v>
+        <v>1.03822602726492</v>
       </c>
       <c r="K16">
-        <v>1.004620942430456</v>
+        <v>1.044974017033331</v>
       </c>
       <c r="L16">
-        <v>0.9846337352603963</v>
+        <v>1.03044058894387</v>
       </c>
       <c r="M16">
-        <v>1.00050535222666</v>
+        <v>1.048173114721819</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047949965229717</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042947537422503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9652454987004113</v>
+        <v>1.012141776485793</v>
       </c>
       <c r="D17">
-        <v>0.9939167798299495</v>
+        <v>1.032213745163197</v>
       </c>
       <c r="E17">
-        <v>0.9738580507075065</v>
+        <v>1.017670354369571</v>
       </c>
       <c r="F17">
-        <v>0.9901934836038417</v>
+        <v>1.035381105018491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03488495772178</v>
+        <v>1.049920949333571</v>
       </c>
       <c r="J17">
-        <v>0.9941080171383915</v>
+        <v>1.039141229533056</v>
       </c>
       <c r="K17">
-        <v>1.008032317321262</v>
+        <v>1.045679580697569</v>
       </c>
       <c r="L17">
-        <v>0.9883405131018298</v>
+        <v>1.031375493015154</v>
       </c>
       <c r="M17">
-        <v>1.004375669482758</v>
+        <v>1.048795966835038</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048313973657637</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043448949965888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9679724086993384</v>
+        <v>1.012812516037461</v>
       </c>
       <c r="D18">
-        <v>0.9960983109222442</v>
+        <v>1.032536517006542</v>
       </c>
       <c r="E18">
-        <v>0.9762194377381774</v>
+        <v>1.01813724227092</v>
       </c>
       <c r="F18">
-        <v>0.9926447679707676</v>
+        <v>1.03552030707458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035886390486483</v>
+        <v>1.049969646579095</v>
       </c>
       <c r="J18">
-        <v>0.9963024771768827</v>
+        <v>1.039400070077411</v>
       </c>
       <c r="K18">
-        <v>1.009984734190937</v>
+        <v>1.045816306237658</v>
       </c>
       <c r="L18">
-        <v>0.9904616808841844</v>
+        <v>1.031650078918884</v>
       </c>
       <c r="M18">
-        <v>1.006591681703579</v>
+        <v>1.048752842484332</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048043699929545</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043534092759508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.968893762748558</v>
+        <v>1.012631501236804</v>
       </c>
       <c r="D19">
-        <v>0.9968356024076847</v>
+        <v>1.032246484640114</v>
       </c>
       <c r="E19">
-        <v>0.9770174008217403</v>
+        <v>1.017903462854014</v>
       </c>
       <c r="F19">
-        <v>0.9934733052861472</v>
+        <v>1.034943224114273</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036224458376617</v>
+        <v>1.049728679369685</v>
       </c>
       <c r="J19">
-        <v>0.9970438688414928</v>
+        <v>1.039093764799747</v>
       </c>
       <c r="K19">
-        <v>1.010644343890617</v>
+        <v>1.045469198050887</v>
       </c>
       <c r="L19">
-        <v>0.9911782511979087</v>
+        <v>1.031357227252403</v>
       </c>
       <c r="M19">
-        <v>1.007340503013644</v>
+        <v>1.048123411139764</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047222794530243</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043295016144108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9647398166711129</v>
+        <v>1.01003394779666</v>
       </c>
       <c r="D20">
-        <v>0.9935123358337562</v>
+        <v>1.030213463622755</v>
       </c>
       <c r="E20">
-        <v>0.9734202065104947</v>
+        <v>1.01567840793102</v>
       </c>
       <c r="F20">
-        <v>0.989739065418583</v>
+        <v>1.032388655153424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034699112637877</v>
+        <v>1.048661927520649</v>
       </c>
       <c r="J20">
-        <v>0.9937010456943877</v>
+        <v>1.037183482880756</v>
       </c>
       <c r="K20">
-        <v>1.007670230396996</v>
+        <v>1.043745065755508</v>
       </c>
       <c r="L20">
-        <v>0.9879471054017233</v>
+        <v>1.029451062087176</v>
       </c>
       <c r="M20">
-        <v>1.003964772924498</v>
+        <v>1.045884933241112</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04492779441</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042079904862105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9506001422482102</v>
+        <v>1.004428425695273</v>
       </c>
       <c r="D21">
-        <v>0.9822171328303596</v>
+        <v>1.026427504377909</v>
       </c>
       <c r="E21">
-        <v>0.9611849658658931</v>
+        <v>1.011182703069103</v>
       </c>
       <c r="F21">
-        <v>0.977052314125433</v>
+        <v>1.028518288255609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029486881314036</v>
+        <v>1.046994486727947</v>
       </c>
       <c r="J21">
-        <v>0.9823189760947612</v>
+        <v>1.033742156016093</v>
       </c>
       <c r="K21">
-        <v>0.9975434249013622</v>
+        <v>1.040924920014335</v>
       </c>
       <c r="L21">
-        <v>0.9769410023794058</v>
+        <v>1.025955268287716</v>
       </c>
       <c r="M21">
-        <v>0.9924818816054772</v>
+        <v>1.042978792378656</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042587218831075</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040089201358747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9411572316002856</v>
+        <v>1.000852992109305</v>
       </c>
       <c r="D22">
-        <v>0.9746896666134753</v>
+        <v>1.024026930170204</v>
       </c>
       <c r="E22">
-        <v>0.9530229937941282</v>
+        <v>1.008326650599159</v>
       </c>
       <c r="F22">
-        <v>0.9686011897588889</v>
+        <v>1.026098669705533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025991567409786</v>
+        <v>1.045931587155234</v>
       </c>
       <c r="J22">
-        <v>0.9747164175566737</v>
+        <v>1.031555791952151</v>
       </c>
       <c r="K22">
-        <v>0.9907797720472802</v>
+        <v>1.039136977005744</v>
       </c>
       <c r="L22">
-        <v>0.9695862764231328</v>
+        <v>1.023734940155257</v>
       </c>
       <c r="M22">
-        <v>0.9848214244400478</v>
+        <v>1.041170250448546</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041155881868782</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038811657603967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9462202634533065</v>
+        <v>1.002737562469277</v>
       </c>
       <c r="D23">
-        <v>0.9787240315475233</v>
+        <v>1.02528466580266</v>
       </c>
       <c r="E23">
-        <v>0.9573982432506353</v>
+        <v>1.009828085574796</v>
       </c>
       <c r="F23">
-        <v>0.9731302736917226</v>
+        <v>1.02737078732326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027866916254494</v>
+        <v>1.046485678046003</v>
       </c>
       <c r="J23">
-        <v>0.9787927226725378</v>
+        <v>1.032701882366569</v>
       </c>
       <c r="K23">
-        <v>0.9944061922615433</v>
+        <v>1.040069723770326</v>
       </c>
       <c r="L23">
-        <v>0.9735300020787568</v>
+        <v>1.024898967240604</v>
       </c>
       <c r="M23">
-        <v>0.9889278454539323</v>
+        <v>1.042118124885782</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041906059861825</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039461567857066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9649684716642609</v>
+        <v>1.010021774639661</v>
       </c>
       <c r="D24">
-        <v>0.9936952098749353</v>
+        <v>1.030171204228927</v>
       </c>
       <c r="E24">
-        <v>0.9736181850147754</v>
+        <v>1.015652432977591</v>
       </c>
       <c r="F24">
-        <v>0.9899445344786523</v>
+        <v>1.032313788898254</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034783151734487</v>
+        <v>1.048622671409368</v>
       </c>
       <c r="J24">
-        <v>0.9938850675937735</v>
+        <v>1.037139428520229</v>
       </c>
       <c r="K24">
-        <v>1.007833956794115</v>
+        <v>1.04368841624078</v>
       </c>
       <c r="L24">
-        <v>0.988124995223992</v>
+        <v>1.029410139150339</v>
       </c>
       <c r="M24">
-        <v>1.004150566883583</v>
+        <v>1.045796245776505</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044817034444618</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042012672804222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9847182405472933</v>
+        <v>1.018154330168536</v>
       </c>
       <c r="D25">
-        <v>1.009513979420033</v>
+        <v>1.035652043052176</v>
       </c>
       <c r="E25">
-        <v>0.9907303257660717</v>
+        <v>1.022184609338353</v>
       </c>
       <c r="F25">
-        <v>1.007727668209972</v>
+        <v>1.037875392913217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042005085909366</v>
+        <v>1.050973820429233</v>
       </c>
       <c r="J25">
-        <v>1.009771073358947</v>
+        <v>1.042085802973631</v>
       </c>
       <c r="K25">
-        <v>1.021966376820097</v>
+        <v>1.047721015018311</v>
       </c>
       <c r="L25">
-        <v>1.003474266339063</v>
+        <v>1.034448029399541</v>
       </c>
       <c r="M25">
-        <v>1.020207194924394</v>
+        <v>1.049912876776902</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04807504528871</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044861037272853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.02435649919326</v>
+        <v>1.022465744896249</v>
       </c>
       <c r="D2">
-        <v>1.039830159601758</v>
+        <v>1.037510611459282</v>
       </c>
       <c r="E2">
-        <v>1.02717984291025</v>
+        <v>1.025621491956785</v>
       </c>
       <c r="F2">
-        <v>1.042142467237904</v>
+        <v>1.040430385466633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052718766883361</v>
+        <v>1.051650629028328</v>
       </c>
       <c r="J2">
-        <v>1.045832340028977</v>
+        <v>1.043994661612806</v>
       </c>
       <c r="K2">
-        <v>1.050761143780505</v>
+        <v>1.048470975010791</v>
       </c>
       <c r="L2">
-        <v>1.038273073375482</v>
+        <v>1.036735055839168</v>
       </c>
       <c r="M2">
-        <v>1.053044326104877</v>
+        <v>1.051353793811665</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050553347651521</v>
+        <v>1.049215421813513</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046962762029832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045352128990361</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024643480077754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,105 +501,123 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028763123621095</v>
+        <v>1.026655598406114</v>
       </c>
       <c r="D3">
-        <v>1.042819028723241</v>
+        <v>1.040246477031408</v>
       </c>
       <c r="E3">
-        <v>1.030745137001545</v>
+        <v>1.028986380700086</v>
       </c>
       <c r="F3">
-        <v>1.045194782389143</v>
+        <v>1.04329548944993</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053951921718545</v>
+        <v>1.05274211523456</v>
       </c>
       <c r="J3">
-        <v>1.048499247604463</v>
+        <v>1.046445070406281</v>
       </c>
       <c r="K3">
-        <v>1.052931848059166</v>
+        <v>1.050389046630848</v>
       </c>
       <c r="L3">
-        <v>1.040999179215149</v>
+        <v>1.039261337057432</v>
       </c>
       <c r="M3">
-        <v>1.05528028790103</v>
+        <v>1.053402818645129</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052322935169696</v>
+        <v>1.05083706652123</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048494971753482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046705432113715</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025078202191745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031560287521585</v>
+        <v>1.029317224743417</v>
       </c>
       <c r="D4">
-        <v>1.044720555001838</v>
+        <v>1.041988874549748</v>
       </c>
       <c r="E4">
-        <v>1.033013445736509</v>
+        <v>1.031129385614555</v>
       </c>
       <c r="F4">
-        <v>1.047140014399671</v>
+        <v>1.045123201070707</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054726596965059</v>
+        <v>1.053427798783893</v>
       </c>
       <c r="J4">
-        <v>1.050189738420713</v>
+        <v>1.047999603382132</v>
       </c>
       <c r="K4">
-        <v>1.054307616550413</v>
+        <v>1.051605626033526</v>
       </c>
       <c r="L4">
-        <v>1.042729108644941</v>
+        <v>1.040866080446549</v>
       </c>
       <c r="M4">
-        <v>1.056700938045398</v>
+        <v>1.054705902459053</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053447265615996</v>
+        <v>1.051868354765063</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049468620989206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047566606446332</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025351456847532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032729105253843</v>
+        <v>1.03042974997265</v>
       </c>
       <c r="D5">
-        <v>1.045518333854795</v>
+        <v>1.042720436572778</v>
       </c>
       <c r="E5">
-        <v>1.033963293816965</v>
+        <v>1.032027142705751</v>
       </c>
       <c r="F5">
-        <v>1.047955323217137</v>
+        <v>1.045889644210353</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055050477648292</v>
+        <v>1.053714588016343</v>
       </c>
       <c r="J5">
-        <v>1.050897549733564</v>
+        <v>1.048650825952056</v>
       </c>
       <c r="K5">
-        <v>1.05488513635534</v>
+        <v>1.052116840951706</v>
       </c>
       <c r="L5">
-        <v>1.043453618781734</v>
+        <v>1.041538496934214</v>
       </c>
       <c r="M5">
-        <v>1.057296499681841</v>
+        <v>1.055252532786989</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053918604302257</v>
+        <v>1.052300969210221</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049884043026995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047935860654677</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025466444944348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032931253626009</v>
+        <v>1.030622031378514</v>
       </c>
       <c r="D6">
-        <v>1.045659062662095</v>
+        <v>1.042849652271705</v>
       </c>
       <c r="E6">
-        <v>1.034128622069077</v>
+        <v>1.032183272534614</v>
       </c>
       <c r="F6">
-        <v>1.048097241846127</v>
+        <v>1.046023051408795</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055108999927452</v>
+        <v>1.053766553804066</v>
       </c>
       <c r="J6">
-        <v>1.051022393839293</v>
+        <v>1.048765756212613</v>
       </c>
       <c r="K6">
-        <v>1.054988854906442</v>
+        <v>1.052209032177339</v>
       </c>
       <c r="L6">
-        <v>1.043581103675363</v>
+        <v>1.041656784977603</v>
       </c>
       <c r="M6">
-        <v>1.057401513153601</v>
+        <v>1.055349024473252</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054001713909469</v>
+        <v>1.052377334682558</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049966008119661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048010547733058</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025488077917363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031593866775709</v>
+        <v>1.029348729743568</v>
       </c>
       <c r="D7">
-        <v>1.044750711508228</v>
+        <v>1.042016886375522</v>
       </c>
       <c r="E7">
-        <v>1.03304340110023</v>
+        <v>1.031157231298183</v>
       </c>
       <c r="F7">
-        <v>1.047165582096121</v>
+        <v>1.045147135161127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05474300326016</v>
+        <v>1.053442700570294</v>
       </c>
       <c r="J7">
-        <v>1.05021671948126</v>
+        <v>1.048024535425733</v>
       </c>
       <c r="K7">
-        <v>1.05433461588209</v>
+        <v>1.0516304920906</v>
       </c>
       <c r="L7">
-        <v>1.042755857125772</v>
+        <v>1.040890734330595</v>
       </c>
       <c r="M7">
-        <v>1.056723408506854</v>
+        <v>1.054726748454001</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053465049167374</v>
+        <v>1.051884852717288</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049507563254567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047606047691891</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025359583062976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025880078515928</v>
+        <v>1.023913243304311</v>
       </c>
       <c r="D8">
-        <v>1.040871745493718</v>
+        <v>1.03846400678979</v>
       </c>
       <c r="E8">
-        <v>1.028414984030036</v>
+        <v>1.026786036126548</v>
       </c>
       <c r="F8">
-        <v>1.043198886205996</v>
+        <v>1.041421428501117</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053155774310553</v>
+        <v>1.052037812956256</v>
       </c>
       <c r="J8">
-        <v>1.046763292947299</v>
+        <v>1.044849804448496</v>
       </c>
       <c r="K8">
-        <v>1.051525144047563</v>
+        <v>1.049146995100466</v>
       </c>
       <c r="L8">
-        <v>1.039223335352229</v>
+        <v>1.037614997305954</v>
       </c>
       <c r="M8">
-        <v>1.053823846852144</v>
+        <v>1.052068095614445</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.0511702773537</v>
+        <v>1.049780736854837</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047525603031783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045855037817746</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024800446578749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015346311387852</v>
+        <v>1.013911116135578</v>
       </c>
       <c r="D9">
-        <v>1.033745267965638</v>
+        <v>1.031951567922305</v>
       </c>
       <c r="E9">
-        <v>1.019920754737253</v>
+        <v>1.018783179152795</v>
       </c>
       <c r="F9">
-        <v>1.035946372325484</v>
+        <v>1.034624794706659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050155328204212</v>
+        <v>1.049382073621696</v>
       </c>
       <c r="J9">
-        <v>1.040368552228889</v>
+        <v>1.038982022778446</v>
       </c>
       <c r="K9">
-        <v>1.046313589166333</v>
+        <v>1.044546682994663</v>
       </c>
       <c r="L9">
-        <v>1.03269869294059</v>
+        <v>1.031578689585513</v>
       </c>
       <c r="M9">
-        <v>1.048481975096021</v>
+        <v>1.047180020903746</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04694259341973</v>
+        <v>1.045912192352539</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043837613438904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042598954468633</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023741037221583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008102327940203</v>
+        <v>1.007036666465763</v>
       </c>
       <c r="D10">
-        <v>1.028904232291923</v>
+        <v>1.027533022738886</v>
       </c>
       <c r="E10">
-        <v>1.014126847061069</v>
+        <v>1.013328664710187</v>
       </c>
       <c r="F10">
-        <v>1.031085692581925</v>
+        <v>1.030079085372027</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048087166525606</v>
+        <v>1.047549296687918</v>
       </c>
       <c r="J10">
-        <v>1.035998129029413</v>
+        <v>1.034973855886278</v>
       </c>
       <c r="K10">
-        <v>1.042770512431769</v>
+        <v>1.04142233928869</v>
       </c>
       <c r="L10">
-        <v>1.028245636961146</v>
+        <v>1.027461365086861</v>
       </c>
       <c r="M10">
-        <v>1.044915486729429</v>
+        <v>1.043925690772955</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044171062027782</v>
+        <v>1.043387756647015</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041349137770974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040408234910717</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023019907411139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005689829136233</v>
+        <v>1.00466908430818</v>
       </c>
       <c r="D11">
-        <v>1.027548986707763</v>
+        <v>1.026245735317507</v>
       </c>
       <c r="E11">
-        <v>1.012331769122026</v>
+        <v>1.011562766118016</v>
       </c>
       <c r="F11">
-        <v>1.030119987086102</v>
+        <v>1.029162451033564</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047663685980979</v>
+        <v>1.047145666796168</v>
       </c>
       <c r="J11">
-        <v>1.034827805395643</v>
+        <v>1.033848905693267</v>
       </c>
       <c r="K11">
-        <v>1.041969421089346</v>
+        <v>1.04068910654149</v>
       </c>
       <c r="L11">
-        <v>1.027024814099986</v>
+        <v>1.026269870977988</v>
       </c>
       <c r="M11">
-        <v>1.044495393008657</v>
+        <v>1.043554593168512</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044271918156909</v>
+        <v>1.043527757075776</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040815325495563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039925627125812</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022934830641613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005077583345032</v>
+        <v>1.0040256066497</v>
       </c>
       <c r="D12">
-        <v>1.027324142666899</v>
+        <v>1.025998915458644</v>
       </c>
       <c r="E12">
-        <v>1.011942614598945</v>
+        <v>1.011135399321021</v>
       </c>
       <c r="F12">
-        <v>1.030183627608085</v>
+        <v>1.029208305026863</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04768814247093</v>
+        <v>1.047143630547472</v>
       </c>
       <c r="J12">
-        <v>1.034668594531316</v>
+        <v>1.03366056734731</v>
       </c>
       <c r="K12">
-        <v>1.04194593266162</v>
+        <v>1.040644411141409</v>
       </c>
       <c r="L12">
-        <v>1.02684453468129</v>
+        <v>1.026052327571681</v>
       </c>
       <c r="M12">
-        <v>1.044754536649465</v>
+        <v>1.043796527481934</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044801260349657</v>
+        <v>1.04404374040603</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040798718660448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039894027076689</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022988805488265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005835593265732</v>
+        <v>1.004689965383539</v>
       </c>
       <c r="D13">
-        <v>1.027980564707051</v>
+        <v>1.026560916443147</v>
       </c>
       <c r="E13">
-        <v>1.012631127714368</v>
+        <v>1.011729653344106</v>
       </c>
       <c r="F13">
-        <v>1.031074818422198</v>
+        <v>1.030027839126434</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048078921598345</v>
+        <v>1.04746933994973</v>
       </c>
       <c r="J13">
-        <v>1.035303291598253</v>
+        <v>1.034205255018284</v>
       </c>
       <c r="K13">
-        <v>1.042548339163135</v>
+        <v>1.041153961956042</v>
       </c>
       <c r="L13">
-        <v>1.027477036012413</v>
+        <v>1.026592238594067</v>
       </c>
       <c r="M13">
-        <v>1.045587824930306</v>
+        <v>1.04455932928258</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045735214930147</v>
+        <v>1.044922161872009</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041222161015338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040251568388491</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023163929824762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006985903648992</v>
+        <v>1.005747524861283</v>
       </c>
       <c r="D14">
-        <v>1.02883880448723</v>
+        <v>1.027321129911824</v>
       </c>
       <c r="E14">
-        <v>1.013600324479767</v>
+        <v>1.012608531813475</v>
       </c>
       <c r="F14">
-        <v>1.032071876022661</v>
+        <v>1.030951087059665</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048517656870969</v>
+        <v>1.04784568733585</v>
       </c>
       <c r="J14">
-        <v>1.036106164407319</v>
+        <v>1.034918454858442</v>
       </c>
       <c r="K14">
-        <v>1.043252896277042</v>
+        <v>1.041761887439032</v>
       </c>
       <c r="L14">
-        <v>1.028286875495165</v>
+        <v>1.02731318580537</v>
       </c>
       <c r="M14">
-        <v>1.04642950082733</v>
+        <v>1.04532823498973</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046572970592682</v>
+        <v>1.045702507169609</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041721711053887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040682929176364</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023341355778156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007573474212948</v>
+        <v>1.006298041285178</v>
       </c>
       <c r="D15">
-        <v>1.02925141043958</v>
+        <v>1.027693093419719</v>
       </c>
       <c r="E15">
-        <v>1.014080171821343</v>
+        <v>1.013053297915871</v>
       </c>
       <c r="F15">
-        <v>1.032513786732244</v>
+        <v>1.031362578023809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04871133592588</v>
+        <v>1.048015106192973</v>
       </c>
       <c r="J15">
-        <v>1.036485342844827</v>
+        <v>1.035261622994479</v>
       </c>
       <c r="K15">
-        <v>1.043573010797678</v>
+        <v>1.042041860327757</v>
       </c>
       <c r="L15">
-        <v>1.028670872988882</v>
+        <v>1.027662592133814</v>
       </c>
       <c r="M15">
-        <v>1.046778856662339</v>
+        <v>1.0456475432589</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046886458036346</v>
+        <v>1.045992267705338</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041953858500871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040887265695885</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023414726409733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010498304580696</v>
+        <v>1.009085062247884</v>
       </c>
       <c r="D16">
-        <v>1.031180904813195</v>
+        <v>1.029462239247696</v>
       </c>
       <c r="E16">
-        <v>1.016397036098332</v>
+        <v>1.015245859943522</v>
       </c>
       <c r="F16">
-        <v>1.034433871854838</v>
+        <v>1.033163770159844</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049526630279734</v>
+        <v>1.048744245282528</v>
       </c>
       <c r="J16">
-        <v>1.03822602726492</v>
+        <v>1.036867157963771</v>
       </c>
       <c r="K16">
-        <v>1.044974017033331</v>
+        <v>1.043283989781334</v>
       </c>
       <c r="L16">
-        <v>1.03044058894387</v>
+        <v>1.029309309860432</v>
       </c>
       <c r="M16">
-        <v>1.048173114721819</v>
+        <v>1.046923994040045</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047949965229717</v>
+        <v>1.046962631788152</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042947537422503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04176891059287</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023694071454237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012141776485793</v>
+        <v>1.010671139349486</v>
       </c>
       <c r="D17">
-        <v>1.032213745163197</v>
+        <v>1.030423203999639</v>
       </c>
       <c r="E17">
-        <v>1.017670354369571</v>
+        <v>1.01647073892598</v>
       </c>
       <c r="F17">
-        <v>1.035381105018491</v>
+        <v>1.034058231842515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049920949333571</v>
+        <v>1.049104846743758</v>
       </c>
       <c r="J17">
-        <v>1.039141229533056</v>
+        <v>1.037725328912409</v>
       </c>
       <c r="K17">
-        <v>1.045679580697569</v>
+        <v>1.043918033556999</v>
       </c>
       <c r="L17">
-        <v>1.031375493015154</v>
+        <v>1.030196010736179</v>
       </c>
       <c r="M17">
-        <v>1.048795966835038</v>
+        <v>1.047494334521168</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048313973657637</v>
+        <v>1.047285032146734</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043448949965888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042220003148562</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023814781445305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012812516037461</v>
+        <v>1.011351555943641</v>
       </c>
       <c r="D18">
-        <v>1.032536517006542</v>
+        <v>1.030747087959875</v>
       </c>
       <c r="E18">
-        <v>1.01813724227092</v>
+        <v>1.016953378078619</v>
       </c>
       <c r="F18">
-        <v>1.03552030707458</v>
+        <v>1.034199202816257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049969646579095</v>
+        <v>1.049164408012311</v>
       </c>
       <c r="J18">
-        <v>1.039400070077411</v>
+        <v>1.037992469686142</v>
       </c>
       <c r="K18">
-        <v>1.045816306237658</v>
+        <v>1.044055384316972</v>
       </c>
       <c r="L18">
-        <v>1.031650078918884</v>
+        <v>1.03048575300177</v>
       </c>
       <c r="M18">
-        <v>1.048752842484332</v>
+        <v>1.047452617275169</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048043699929545</v>
+        <v>1.047015658920073</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043534092759508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042304448391379</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023799080902219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012631501236804</v>
+        <v>1.011236716098847</v>
       </c>
       <c r="D19">
-        <v>1.032246484640114</v>
+        <v>1.030520508326447</v>
       </c>
       <c r="E19">
-        <v>1.017903462854014</v>
+        <v>1.016788841088593</v>
       </c>
       <c r="F19">
-        <v>1.034943224114273</v>
+        <v>1.033670340111776</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049728679369685</v>
+        <v>1.048971489488907</v>
       </c>
       <c r="J19">
-        <v>1.039093764799747</v>
+        <v>1.037749646267684</v>
       </c>
       <c r="K19">
-        <v>1.045469198050887</v>
+        <v>1.043770589266325</v>
       </c>
       <c r="L19">
-        <v>1.031357227252403</v>
+        <v>1.030260911944415</v>
       </c>
       <c r="M19">
-        <v>1.048123411139764</v>
+        <v>1.046870564561848</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047222794530243</v>
+        <v>1.046231894672804</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043295016144108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042110057299385</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023672328817644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01003394779666</v>
+        <v>1.008866207469817</v>
       </c>
       <c r="D20">
-        <v>1.030213463622755</v>
+        <v>1.028727121401468</v>
       </c>
       <c r="E20">
-        <v>1.01567840793102</v>
+        <v>1.014785818696368</v>
       </c>
       <c r="F20">
-        <v>1.032388655153424</v>
+        <v>1.031295930495042</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048661927520649</v>
+        <v>1.048058748020042</v>
       </c>
       <c r="J20">
-        <v>1.037183482880756</v>
+        <v>1.036059578736047</v>
       </c>
       <c r="K20">
-        <v>1.043745065755508</v>
+        <v>1.042282971424301</v>
       </c>
       <c r="L20">
-        <v>1.029451062087176</v>
+        <v>1.02857356612516</v>
       </c>
       <c r="M20">
-        <v>1.045884933241112</v>
+        <v>1.04480992997398</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04492779441</v>
+        <v>1.044077047680099</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042079904862105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041062565580517</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023226891949958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004428425695273</v>
+        <v>1.003566833477547</v>
       </c>
       <c r="D21">
-        <v>1.026427504377909</v>
+        <v>1.025285262854809</v>
       </c>
       <c r="E21">
-        <v>1.011182703069103</v>
+        <v>1.010573021543744</v>
       </c>
       <c r="F21">
-        <v>1.028518288255609</v>
+        <v>1.027683017872981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046994486727947</v>
+        <v>1.046586422099233</v>
       </c>
       <c r="J21">
-        <v>1.033742156016093</v>
+        <v>1.032916180115613</v>
       </c>
       <c r="K21">
-        <v>1.040924920014335</v>
+        <v>1.039802926576964</v>
       </c>
       <c r="L21">
-        <v>1.025955268287716</v>
+        <v>1.025356815728311</v>
       </c>
       <c r="M21">
-        <v>1.042978792378656</v>
+        <v>1.042158244825288</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042587218831075</v>
+        <v>1.041937812041504</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040089201358747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039312663194734</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022633183834666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000852992109305</v>
+        <v>1.000186634947633</v>
       </c>
       <c r="D22">
-        <v>1.024026930170204</v>
+        <v>1.023102838953289</v>
       </c>
       <c r="E22">
-        <v>1.008326650599159</v>
+        <v>1.007896673182768</v>
       </c>
       <c r="F22">
-        <v>1.026098669705533</v>
+        <v>1.025427024024842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045931587155234</v>
+        <v>1.045646736523915</v>
       </c>
       <c r="J22">
-        <v>1.031555791952151</v>
+        <v>1.030918638463872</v>
       </c>
       <c r="K22">
-        <v>1.039136977005744</v>
+        <v>1.038230109001311</v>
       </c>
       <c r="L22">
-        <v>1.023734940155257</v>
+        <v>1.023313301955937</v>
       </c>
       <c r="M22">
-        <v>1.041170250448546</v>
+        <v>1.040511053042235</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041155881868782</v>
+        <v>1.040634171605273</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038811657603967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03818592337936</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022256091995818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002737562469277</v>
+        <v>1.001968772233926</v>
       </c>
       <c r="D23">
-        <v>1.02528466580266</v>
+        <v>1.024245939202484</v>
       </c>
       <c r="E23">
-        <v>1.009828085574796</v>
+        <v>1.009304125528705</v>
       </c>
       <c r="F23">
-        <v>1.02737078732326</v>
+        <v>1.026613180535823</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046485678046003</v>
+        <v>1.046136486549328</v>
       </c>
       <c r="J23">
-        <v>1.032701882366569</v>
+        <v>1.031965764898734</v>
       </c>
       <c r="K23">
-        <v>1.040069723770326</v>
+        <v>1.039049853557691</v>
       </c>
       <c r="L23">
-        <v>1.024898967240604</v>
+        <v>1.024384896767642</v>
       </c>
       <c r="M23">
-        <v>1.042118124885782</v>
+        <v>1.041374193789079</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041906059861825</v>
+        <v>1.041317289184089</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039461567857066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038754987840407</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022450398229538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010021774639661</v>
+        <v>1.008863102076695</v>
       </c>
       <c r="D24">
-        <v>1.030171204228927</v>
+        <v>1.028693142780351</v>
       </c>
       <c r="E24">
-        <v>1.015652432977591</v>
+        <v>1.01476958976905</v>
       </c>
       <c r="F24">
-        <v>1.032313788898254</v>
+        <v>1.031227465563425</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048622671409368</v>
+        <v>1.048026280993689</v>
       </c>
       <c r="J24">
-        <v>1.037139428520229</v>
+        <v>1.036024191736455</v>
       </c>
       <c r="K24">
-        <v>1.04368841624078</v>
+        <v>1.042234439056434</v>
       </c>
       <c r="L24">
-        <v>1.029410139150339</v>
+        <v>1.028542206049538</v>
       </c>
       <c r="M24">
-        <v>1.045796245776505</v>
+        <v>1.044727520649777</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044817034444618</v>
+        <v>1.043971214699959</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042012672804222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040998392622197</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023203949347103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018154330168536</v>
+        <v>1.016574073670177</v>
       </c>
       <c r="D25">
-        <v>1.035652043052176</v>
+        <v>1.033692424387673</v>
       </c>
       <c r="E25">
-        <v>1.022184609338353</v>
+        <v>1.020912676158796</v>
       </c>
       <c r="F25">
-        <v>1.037875392913217</v>
+        <v>1.036430282098068</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050973820429233</v>
+        <v>1.050106750845065</v>
       </c>
       <c r="J25">
-        <v>1.042085802973631</v>
+        <v>1.040556244731365</v>
       </c>
       <c r="K25">
-        <v>1.047721015018311</v>
+        <v>1.045789291480335</v>
       </c>
       <c r="L25">
-        <v>1.034448029399541</v>
+        <v>1.033194797576811</v>
       </c>
       <c r="M25">
-        <v>1.049912876776902</v>
+        <v>1.048488212853577</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04807504528871</v>
+        <v>1.046947530142977</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044861037272853</v>
+        <v>1.043508655102084</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024033630855287</v>
       </c>
     </row>
   </sheetData>
